--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>456.0715527142845</v>
+        <v>456.0043436124835</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.23668948029442</v>
+        <v>10.23667224925197</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>541.633710240853</v>
+        <v>541.6346292539919</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>963.3998892741733</v>
+        <v>963.4017051747375</v>
       </c>
       <c r="E5" t="n">
-        <v>466.3082421945789</v>
+        <v>466.2410158617354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787274737420855</v>
+        <v>0.778727249768967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211442772526331</v>
+        <v>0.121143913243962</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03145813118404692</v>
+        <v>0.03145832462111987</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06212197365242079</v>
+        <v>0.0621223613400184</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548144168813694</v>
+        <v>0.006548151025932657</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.338212865326</v>
+        <v>466.3422213817573</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.2415570632063</v>
+        <v>877.2468377952995</v>
       </c>
       <c r="E6" t="n">
-        <v>466.3082421945789</v>
+        <v>466.2410158617354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787274737420855</v>
+        <v>0.778727249768967</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211442772526331</v>
+        <v>0.121143913243962</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03145813118404692</v>
+        <v>0.03145832462111987</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06212197365242079</v>
+        <v>0.0621223613400184</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548144168813694</v>
+        <v>0.006548151025932657</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.2784420010905</v>
+        <v>295.271842597094</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>687.0782829100161</v>
+        <v>687.0717806463102</v>
       </c>
       <c r="E7" t="n">
-        <v>466.3082421945789</v>
+        <v>466.2410158617354</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787274737420855</v>
+        <v>0.778727249768967</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211442772526331</v>
+        <v>0.121143913243962</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03145813118404692</v>
+        <v>0.03145832462111987</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06212197365242079</v>
+        <v>0.0621223613400184</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548144168813694</v>
+        <v>0.006548151025932657</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.7527830073205</v>
+        <v>226.761038196427</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.9744487068183</v>
+        <v>612.9839827409278</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3082421945789</v>
+        <v>466.2410158617354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787274737420855</v>
+        <v>0.778727249768967</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211442772526331</v>
+        <v>0.121143913243962</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03145813118404692</v>
+        <v>0.03145832462111987</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06212197365242079</v>
+        <v>0.0621223613400184</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548144168813694</v>
+        <v>0.006548151025932657</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.8323713703805</v>
+        <v>225.8406075553548</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.9863769072779</v>
+        <v>611.9958886806759</v>
       </c>
       <c r="E9" t="n">
-        <v>466.3082421945789</v>
+        <v>466.2410158617354</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787274737420855</v>
+        <v>0.778727249768967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211442772526331</v>
+        <v>0.121143913243962</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03145813118404692</v>
+        <v>0.03145832462111987</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06212197365242079</v>
+        <v>0.0621223613400184</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548144168813694</v>
+        <v>0.006548151025932657</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.158467346246</v>
+        <v>166.1530844385788</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.2948609376753</v>
+        <v>548.2898033583768</v>
       </c>
       <c r="E10" t="n">
-        <v>466.3082421945789</v>
+        <v>466.2410158617354</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787274737420855</v>
+        <v>0.778727249768967</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211442772526331</v>
+        <v>0.121143913243962</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03145813118404692</v>
+        <v>0.03145832462111987</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06212197365242079</v>
+        <v>0.0621223613400184</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548144168813694</v>
+        <v>0.006548151025932657</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.1853074676384</v>
+        <v>100.1858685885867</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.6106793504742</v>
+        <v>478.611911755391</v>
       </c>
       <c r="E11" t="n">
-        <v>466.3082421945789</v>
+        <v>466.2410158617354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787274737420855</v>
+        <v>0.778727249768967</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211442772526331</v>
+        <v>0.121143913243962</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03145813118404692</v>
+        <v>0.03145832462111987</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06212197365242079</v>
+        <v>0.0621223613400184</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548144168813694</v>
+        <v>0.006548151025932657</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.703450530881282</v>
+        <v>9.703434197420325</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5332389494131439</v>
+        <v>0.5332380518316564</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980452912597787</v>
+        <v>8.980482924823228</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980452912597787</v>
+        <v>8.980482924823228</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980452912597787</v>
+        <v>8.980482924823228</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980452912597787</v>
+        <v>8.980482924823228</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572028151940474</v>
+        <v>3.572040089480285</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594418</v>
+        <v>0.05094889585944174</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489637</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173055</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6618594840836718</v>
+        <v>0.6618278103053005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6908826733973856</v>
+        <v>0.6908570833558304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9579911460639278</v>
+        <v>0.9579807839422873</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.40642059392016</v>
+        <v>55.40402382029212</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.36875450024503</v>
+        <v>34.36738065855128</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488516056412493</v>
+        <v>0.8488519243232159</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.07189733223778</v>
+        <v>14.07165006816516</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7624845554856178</v>
+        <v>0.7624826719890555</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.663356745518747</v>
+        <v>5.662923974664522</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7338239401600877</v>
+        <v>0.7338574446362343</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.302412015918596</v>
+        <v>1.302069118911155</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3771850310685081</v>
+        <v>0.3771399713736501</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.121571940078969</v>
+        <v>0.1215592790988191</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1356013580592898</v>
+        <v>0.1355873508825826</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8965392516630499</v>
+        <v>0.8965384920315196</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42409.54848920475</v>
+        <v>42411.60672513358</v>
       </c>
       <c r="C2" t="n">
-        <v>42837.92776687348</v>
+        <v>42840.00679306422</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91981.86554896276</v>
+        <v>91980.69289359977</v>
       </c>
       <c r="C3" t="n">
-        <v>92910.97530198259</v>
+        <v>92909.79080161593</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40294.06124365752</v>
+        <v>40293.53966607132</v>
       </c>
       <c r="C4" t="n">
-        <v>40701.07196329043</v>
+        <v>40700.54511724375</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.4056963574593</v>
+        <v>515.4074561043849</v>
       </c>
       <c r="C5" t="n">
-        <v>520.6118145024842</v>
+        <v>520.6135920246312</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33362.17230912323</v>
+        <v>33363.02310440128</v>
       </c>
       <c r="C6" t="n">
-        <v>33699.16394860933</v>
+        <v>33700.02333777906</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38419.07735561726</v>
+        <v>38417.72531925164</v>
       </c>
       <c r="C7" t="n">
-        <v>38807.14884405784</v>
+        <v>38805.78315075923</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.95344548069077</v>
+        <v>64.94902104811401</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.05575790255035</v>
+        <v>71.06010279918216</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.227173648888532</v>
+        <v>6.227253184833514</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.2243689713471</v>
+        <v>515.2351242154541</v>
       </c>
       <c r="C3" t="n">
-        <v>6.790039717215454</v>
+        <v>6.789609471623763</v>
       </c>
       <c r="D3" t="n">
-        <v>3450.537661017487</v>
+        <v>3450.569073542095</v>
       </c>
       <c r="E3" t="n">
-        <v>58.49186105446388</v>
+        <v>58.49006836811677</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.3040757619819</v>
+        <v>287.2981030393224</v>
       </c>
       <c r="C4" t="n">
-        <v>7.153887982813567</v>
+        <v>7.153259785618538</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.606456354497</v>
+        <v>2770.614809047768</v>
       </c>
       <c r="E4" t="n">
-        <v>58.49186105446388</v>
+        <v>58.49006836811677</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.25755988372</v>
+        <v>286.2312562513407</v>
       </c>
       <c r="C5" t="n">
-        <v>7.153887982813567</v>
+        <v>7.153259785618538</v>
       </c>
       <c r="D5" t="n">
-        <v>1269.864270647545</v>
+        <v>1269.722496079351</v>
       </c>
       <c r="E5" t="n">
-        <v>58.49186105446388</v>
+        <v>58.49006836811677</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.3265714722418</v>
+        <v>161.3219216077466</v>
       </c>
       <c r="C6" t="n">
-        <v>7.153887982813567</v>
+        <v>7.153259785618538</v>
       </c>
       <c r="D6" t="n">
-        <v>685.039471333509</v>
+        <v>685.0190310619646</v>
       </c>
       <c r="E6" t="n">
-        <v>58.49186105446388</v>
+        <v>58.49006836811677</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.4505952927633</v>
+        <v>155.4438284557073</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5499233628244828</v>
+        <v>0.5498264530161435</v>
       </c>
       <c r="D7" t="n">
-        <v>655.7405408741663</v>
+        <v>655.7112366686011</v>
       </c>
       <c r="E7" t="n">
-        <v>58.49186105446388</v>
+        <v>58.49006836811677</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.2295615212104</v>
+        <v>169.223299259982</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5434767956975335</v>
+        <v>0.5434358780729761</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.288123254856</v>
+        <v>2785.280763503144</v>
       </c>
       <c r="E8" t="n">
-        <v>13.83782803230616</v>
+        <v>13.83869448983506</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.4505951753227</v>
+        <v>155.4438283382789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5499233628244828</v>
+        <v>0.5498264530161435</v>
       </c>
       <c r="D9" t="n">
-        <v>2752.327769301994</v>
+        <v>2752.320004821353</v>
       </c>
       <c r="E9" t="n">
-        <v>13.83782803230616</v>
+        <v>13.83869448983506</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.1993771327737</v>
+        <v>154.2031468846191</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5499233628244828</v>
+        <v>0.5498264530161435</v>
       </c>
       <c r="D10" t="n">
-        <v>650.3350297776765</v>
+        <v>650.3512507059795</v>
       </c>
       <c r="E10" t="n">
-        <v>72.32968908677003</v>
+        <v>72.32876285795183</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.1993771327737</v>
+        <v>154.2031468846191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5499233628244828</v>
+        <v>0.5498264530161435</v>
       </c>
       <c r="D11" t="n">
-        <v>650.3350297776765</v>
+        <v>650.3512507059795</v>
       </c>
       <c r="E11" t="n">
-        <v>80.68369380003472</v>
+        <v>80.661482359159</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5499233628244828</v>
+        <v>0.5498264530161435</v>
       </c>
       <c r="D12" t="n">
-        <v>251.625401656436</v>
+        <v>251.6253202814028</v>
       </c>
       <c r="E12" t="n">
-        <v>80.67317655131566</v>
+        <v>80.66969840494454</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.97272417377309</v>
+        <v>48.97266023279815</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>205.6377853498011</v>
+        <v>205.6375180968434</v>
       </c>
       <c r="E13" t="n">
-        <v>72.33481421172097</v>
+        <v>72.32989236386648</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.41327659198384</v>
+        <v>48.4131780817051</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.2995147573825</v>
+        <v>203.2991030305244</v>
       </c>
       <c r="E14" t="n">
-        <v>63.35907004566285</v>
+        <v>63.35440049546708</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.04495912034866</v>
+        <v>79.04198574123279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04561043560786698</v>
+        <v>0.04560491038345562</v>
       </c>
       <c r="D15" t="n">
-        <v>331.0030707771199</v>
+        <v>330.9905895846135</v>
       </c>
       <c r="E15" t="n">
-        <v>58.91427129403208</v>
+        <v>58.9143170164288</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.26019529061028</v>
+        <v>50.2591816050375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04561055366523396</v>
+        <v>0.0456048515136405</v>
       </c>
       <c r="D16" t="n">
-        <v>210.4584526222909</v>
+        <v>210.4542089365586</v>
       </c>
       <c r="E16" t="n">
-        <v>58.9148325922495</v>
+        <v>58.9128696973322</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>620.0932357522091</v>
+        <v>620.0962979347943</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.1137114818485</v>
+        <v>78.11409722778664</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.39702664382654</v>
+        <v>64.3946640369068</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>269.6303505577017</v>
+        <v>269.6204583225288</v>
       </c>
       <c r="E19" t="n">
-        <v>78.1137114818485</v>
+        <v>78.11409722778664</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.7849298837388</v>
+        <v>102.780325435435</v>
       </c>
       <c r="C20" t="n">
-        <v>0.111909590309404</v>
+        <v>0.1119125521083013</v>
       </c>
       <c r="D20" t="n">
-        <v>2651.546924222742</v>
+        <v>2651.549742447438</v>
       </c>
       <c r="E20" t="n">
-        <v>23.01778631932794</v>
+        <v>23.02120210739502</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.3265054728287</v>
+        <v>101.3272531230266</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1063141107939338</v>
+        <v>0.1063169245028863</v>
       </c>
       <c r="D21" t="n">
-        <v>424.76296644384</v>
+        <v>424.7661215520909</v>
       </c>
       <c r="E21" t="n">
-        <v>23.01778631932794</v>
+        <v>23.02120210739502</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.7191595322324</v>
+        <v>76.71635870862158</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>321.2231209614571</v>
+        <v>321.2113939129986</v>
       </c>
       <c r="E22" t="n">
-        <v>620.0932357522091</v>
+        <v>620.0962979347943</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>620.0932357522091</v>
+        <v>620.0962979347943</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.60800008798111</v>
+        <v>45.60770246822874</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>620.0932357522091</v>
+        <v>620.0962979347943</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.30907583260597</v>
+        <v>80.30607792128058</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0480109848503863</v>
+        <v>0.04800516882469013</v>
       </c>
       <c r="D25" t="n">
-        <v>2543.826960162502</v>
+        <v>2543.834409571037</v>
       </c>
       <c r="E25" t="n">
-        <v>35.89649090952287</v>
+        <v>35.89307270194914</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.4230143115481</v>
+        <v>512.4344676040193</v>
       </c>
       <c r="C26" t="n">
-        <v>6.186261318356761</v>
+        <v>6.185884619496268</v>
       </c>
       <c r="D26" t="n">
-        <v>3450.537661017487</v>
+        <v>3450.569073542095</v>
       </c>
       <c r="E26" t="n">
-        <v>49.52074337619769</v>
+        <v>49.51721627370346</v>
       </c>
       <c r="F26" t="n">
-        <v>6.904352740045338</v>
+        <v>6.904419552493555</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.8588260249805</v>
+        <v>195.8689828857888</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4074689486165068</v>
+        <v>0.4074528838532439</v>
       </c>
       <c r="D27" t="n">
-        <v>2851.839898906171</v>
+        <v>2851.862142406307</v>
       </c>
       <c r="E27" t="n">
-        <v>49.52074337619769</v>
+        <v>49.51721627370346</v>
       </c>
       <c r="F27" t="n">
-        <v>7.144658103933417</v>
+        <v>7.144723317113148</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.6059135592001</v>
+        <v>166.6023207720849</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4619637197349072</v>
+        <v>0.4619544795806614</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.288123254856</v>
+        <v>2785.280763503144</v>
       </c>
       <c r="E28" t="n">
-        <v>13.83782803230616</v>
+        <v>13.83869448983506</v>
       </c>
       <c r="F28" t="n">
-        <v>6.941766989324802</v>
+        <v>6.941759166832108</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.9829840435181</v>
+        <v>188.9892836898751</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4074689486165068</v>
+        <v>0.4074528838532439</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.304659139323</v>
+        <v>2837.318915890446</v>
       </c>
       <c r="E29" t="n">
-        <v>63.35857140850385</v>
+        <v>63.35591076353852</v>
       </c>
       <c r="F29" t="n">
-        <v>7.113437039143708</v>
+        <v>7.113485648386488</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.7838194575253</v>
+        <v>102.7807745817842</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1119168101042207</v>
+        <v>0.1119048546039694</v>
       </c>
       <c r="D30" t="n">
-        <v>2651.543891182819</v>
+        <v>2651.550968930499</v>
       </c>
       <c r="E30" t="n">
-        <v>63.35857140850385</v>
+        <v>63.35591076353852</v>
       </c>
       <c r="F30" t="n">
-        <v>7.245518134723903</v>
+        <v>7.245584839264796</v>
       </c>
       <c r="G30" t="n">
-        <v>98.73736884329305</v>
+        <v>98.73789960414555</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.30640715974772</v>
+        <v>80.30878588997507</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0480058075269507</v>
+        <v>0.04801042232832104</v>
       </c>
       <c r="D31" t="n">
-        <v>2543.817242753276</v>
+        <v>2543.845002667455</v>
       </c>
       <c r="E31" t="n">
-        <v>40.34079102399464</v>
+        <v>40.33466644905886</v>
       </c>
       <c r="F31" t="n">
-        <v>7.324736162944657</v>
+        <v>7.324772656011297</v>
       </c>
       <c r="G31" t="n">
-        <v>95.67832312194361</v>
+        <v>95.6793427022086</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.55468560379165</v>
+        <v>42.544199364316</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008451869136835185</v>
+        <v>0.008447231852405966</v>
       </c>
       <c r="D32" t="n">
-        <v>2543.817242753276</v>
+        <v>2543.845002667455</v>
       </c>
       <c r="E32" t="n">
-        <v>4.444237453413358</v>
+        <v>4.441530798134878</v>
       </c>
       <c r="F32" t="n">
-        <v>8.099456850132357</v>
+        <v>8.099793694174169</v>
       </c>
       <c r="G32" t="n">
-        <v>98.57264928512734</v>
+        <v>98.57460004020146</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.67814916158403</v>
+        <v>23.67713212599779</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002928555668593768</v>
+        <v>0.002928376314886644</v>
       </c>
       <c r="D33" t="n">
-        <v>2538.962824477212</v>
+        <v>2539.010231296663</v>
       </c>
       <c r="E33" t="n">
-        <v>4.444237453413358</v>
+        <v>4.441530798134878</v>
       </c>
       <c r="F33" t="n">
-        <v>8.56774814029048</v>
+        <v>8.567936014384838</v>
       </c>
       <c r="G33" t="n">
-        <v>99.78946540733196</v>
+        <v>99.79148011375007</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.67814916158403</v>
+        <v>23.67713212599779</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002928555668593768</v>
+        <v>0.002928376314886644</v>
       </c>
       <c r="D34" t="n">
-        <v>99.30116495273546</v>
+        <v>99.29691134644037</v>
       </c>
       <c r="E34" t="n">
-        <v>4.444237453413358</v>
+        <v>4.441530798134878</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.70017115558346</v>
+        <v>25.69915340577171</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.3973790658115</v>
+        <v>108.393125548658</v>
       </c>
       <c r="E35" t="n">
-        <v>4.444237453413358</v>
+        <v>4.441530798134878</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.227281895936</v>
+        <v>500.2323596401703</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3468.742523771091</v>
+        <v>3468.753726404483</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623142664128376</v>
+        <v>7.623168140290707</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>8.975744166058112</v>
+        <v>8.975491868399404</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.227281895936</v>
+        <v>515.2323596401703</v>
       </c>
       <c r="C42" t="n">
-        <v>6.790623614135537</v>
+        <v>6.789582045763503</v>
       </c>
       <c r="D42" t="n">
-        <v>3450.535469471803</v>
+        <v>3450.559429947064</v>
       </c>
       <c r="E42" t="n">
-        <v>8.975744166058112</v>
+        <v>8.975491868399404</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980452912597787</v>
+        <v>8.980482924823228</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980452912597787</v>
+        <v>8.980482924823228</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980452912597787</v>
+        <v>8.980482924823228</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980452912597787</v>
+        <v>8.980482924823228</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572028151940474</v>
+        <v>3.572040089480285</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594418</v>
+        <v>0.05094889585944174</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489637</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173055</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.713748969472275</v>
+        <v>1.714214897786538</v>
       </c>
       <c r="C2" t="n">
-        <v>1.900917194778688</v>
+        <v>1.901493894731906</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9015379387274132</v>
+        <v>0.9015095460131503</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2467693684712711</v>
+        <v>0.2466731801962793</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>130.3041025426891</v>
+        <v>130.2718051924</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.7331703947068</v>
+        <v>31.73030801959983</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.226363600695316</v>
+        <v>6.22629507283847</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.78484751841757</v>
+        <v>45.78155607367502</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.64795823741836</v>
+        <v>29.64630059361608</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488107304025885</v>
+        <v>0.8488108540377369</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.76953688147067</v>
+        <v>11.76949747032016</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7890794883229114</v>
+        <v>0.7890644678884811</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.345778212011527</v>
+        <v>4.344284223793468</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7937023032669434</v>
+        <v>0.7937322181032964</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02157418751701918</v>
+        <v>0.02147378594531419</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03374487623264119</v>
+        <v>0.03362334168539208</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04042573544559992</v>
+        <v>0.04040111552558157</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04530485769841718</v>
+        <v>0.0452773219052406</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923046556001494</v>
+        <v>0.8923035600501222</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39774.57703927548</v>
+        <v>39767.24355953803</v>
       </c>
       <c r="C2" t="n">
-        <v>40176.34044371261</v>
+        <v>40168.93288842226</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87787.95507933652</v>
+        <v>87780.73771834126</v>
       </c>
       <c r="C3" t="n">
-        <v>88674.70210033991</v>
+        <v>88667.41183670834</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34209.67638049998</v>
+        <v>34197.34245678083</v>
       </c>
       <c r="C4" t="n">
-        <v>34555.22866717169</v>
+        <v>34542.77015836447</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>456.1385637656708</v>
+        <v>456.0830786346095</v>
       </c>
       <c r="C5" t="n">
-        <v>460.7460240057281</v>
+        <v>460.6899784187975</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29402.88006594841</v>
+        <v>29405.36603787066</v>
       </c>
       <c r="C6" t="n">
-        <v>29699.87885449335</v>
+        <v>29702.38993724309</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32169.36514244862</v>
+        <v>32161.82405443922</v>
       </c>
       <c r="C7" t="n">
-        <v>32494.30822469557</v>
+        <v>32486.69096408002</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.74308094626752</v>
+        <v>50.75060342820802</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.7748483628512</v>
+        <v>80.7687480738646</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.030862892307945</v>
+        <v>7.030124889527749</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25948.03190178911</v>
+        <v>25948.20401837469</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3029.188905673655</v>
+        <v>3028.417330391806</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16994.21564756444</v>
+        <v>16994.18704182703</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.820173272577</v>
+        <v>5906.8399135708</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.410226102116</v>
+        <v>4267.424487574115</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.78008338806</v>
+        <v>15840.83302248453</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29044.19938843641</v>
+        <v>29043.51475402125</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.793064238875169</v>
+        <v>0.792867668905192</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.9095746502881</v>
+        <v>463.9060876667107</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.343703555619</v>
+        <v>869.3397572225464</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.1348340473629</v>
+        <v>305.1332765774334</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.9834170554994</v>
+        <v>692.98171909861</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7087238424333</v>
+        <v>233.7080736696363</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.7260996182697</v>
+        <v>615.7254017016816</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.7880332212708</v>
+        <v>232.7873797829029</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.7378929132751</v>
+        <v>614.7371916226581</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.8402394903318</v>
+        <v>172.8380414778162</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.7713465555983</v>
+        <v>550.769014003231</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.0483070975658</v>
+        <v>103.0485544154125</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>477.1090061685118</v>
+        <v>477.1092659262632</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.495330255602</v>
+        <v>506.490598751828</v>
       </c>
       <c r="C3" t="n">
-        <v>7.838296735945771</v>
+        <v>7.838050810589494</v>
       </c>
       <c r="D3" t="n">
-        <v>3417.434202137742</v>
+        <v>3417.425252135517</v>
       </c>
       <c r="E3" t="n">
-        <v>64.07735035818853</v>
+        <v>64.07556971358119</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.8285973105958</v>
+        <v>296.827123055292</v>
       </c>
       <c r="C4" t="n">
-        <v>8.210731902813269</v>
+        <v>8.210559581482272</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.511050013612</v>
+        <v>2755.513676066534</v>
       </c>
       <c r="E4" t="n">
-        <v>64.07735035818853</v>
+        <v>64.07556971358119</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.5269316209265</v>
+        <v>295.5263039441616</v>
       </c>
       <c r="C5" t="n">
-        <v>8.210731902813269</v>
+        <v>8.210559581482272</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.009619656586</v>
+        <v>1320.006270871528</v>
       </c>
       <c r="E5" t="n">
-        <v>64.07735035818853</v>
+        <v>64.07556971358119</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.604002675683</v>
+        <v>162.6014385158627</v>
       </c>
       <c r="C6" t="n">
-        <v>8.210731902813269</v>
+        <v>8.210559581482272</v>
       </c>
       <c r="D6" t="n">
-        <v>691.1738287585804</v>
+        <v>691.1626596683002</v>
       </c>
       <c r="E6" t="n">
-        <v>64.07735035818853</v>
+        <v>64.07556971358119</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.2357799543456</v>
+        <v>161.2332590982583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6379109579117107</v>
+        <v>0.6378703192752442</v>
       </c>
       <c r="D7" t="n">
-        <v>680.8447580279101</v>
+        <v>680.8337962143554</v>
       </c>
       <c r="E7" t="n">
-        <v>64.07735035818853</v>
+        <v>64.07556971358119</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.6364104475366</v>
+        <v>174.6332582663786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6312348193727277</v>
+        <v>0.6312183253237581</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.554118722165</v>
+        <v>2791.549694765387</v>
       </c>
       <c r="E8" t="n">
-        <v>15.73198789963435</v>
+        <v>15.73257592807106</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.2357798253475</v>
+        <v>161.2332589692651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6379109579117107</v>
+        <v>0.6378703192752442</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.793011681387</v>
+        <v>2758.790270955668</v>
       </c>
       <c r="E9" t="n">
-        <v>15.73198789963435</v>
+        <v>15.73257592807106</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.3005263276744</v>
+        <v>159.2936822321203</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6379109579117107</v>
+        <v>0.6378703192752442</v>
       </c>
       <c r="D10" t="n">
-        <v>672.4532691594673</v>
+        <v>672.4235890508335</v>
       </c>
       <c r="E10" t="n">
-        <v>79.80933825782287</v>
+        <v>79.80814564165225</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.3005263276744</v>
+        <v>159.2936822321203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6379109579117107</v>
+        <v>0.6378703192752442</v>
       </c>
       <c r="D11" t="n">
-        <v>672.4532691594673</v>
+        <v>672.4235890508335</v>
       </c>
       <c r="E11" t="n">
-        <v>91.31007431649016</v>
+        <v>91.31329378734732</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6379109579117107</v>
+        <v>0.6378703192752442</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6992839712042</v>
+        <v>251.6992498476775</v>
       </c>
       <c r="E12" t="n">
-        <v>91.3158961015771</v>
+        <v>91.31509025720975</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.47967277593074</v>
+        <v>45.48017091053111</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>191.0394896582762</v>
+        <v>191.0415712784071</v>
       </c>
       <c r="E13" t="n">
-        <v>74.22307330808552</v>
+        <v>74.2235511469145</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.47967277593074</v>
+        <v>45.48017091053111</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>191.0394896582762</v>
+        <v>191.0415712784071</v>
       </c>
       <c r="E14" t="n">
-        <v>74.22307330808552</v>
+        <v>74.2235511469145</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.95599482320944</v>
+        <v>73.95778080827318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03694033782323149</v>
+        <v>0.03694311718671527</v>
       </c>
       <c r="D15" t="n">
-        <v>309.6510864933827</v>
+        <v>309.6585767639215</v>
       </c>
       <c r="E15" t="n">
-        <v>60.85571499850363</v>
+        <v>60.85828751685645</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.26779134193958</v>
+        <v>49.26800829427071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03694332597514778</v>
+        <v>0.03694297388082775</v>
       </c>
       <c r="D16" t="n">
-        <v>206.3013199559445</v>
+        <v>206.3022267920589</v>
       </c>
       <c r="E16" t="n">
-        <v>60.85726677832035</v>
+        <v>60.85913673593011</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.44610886807146</v>
+        <v>61.44634574636935</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>257.2748578306152</v>
+        <v>257.2758496400485</v>
       </c>
       <c r="E19" t="n">
         <v>80.19276921272788</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.1968978809409</v>
+        <v>104.1954476553143</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1175715385984776</v>
+        <v>0.1175697218716255</v>
       </c>
       <c r="D20" t="n">
-        <v>2632.1488242889</v>
+        <v>2632.143742171011</v>
       </c>
       <c r="E20" t="n">
-        <v>29.80253080863795</v>
+        <v>29.80054438389535</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.7267641664621</v>
+        <v>102.7263238957268</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1116929616685538</v>
+        <v>0.1116912357780442</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6733418587164</v>
+        <v>430.671483119741</v>
       </c>
       <c r="E21" t="n">
-        <v>29.80253080863795</v>
+        <v>29.80054438389535</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.894504775301</v>
+        <v>71.89616470497629</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>301.0222914941853</v>
+        <v>301.0292416197357</v>
       </c>
       <c r="E22" t="n">
         <v>636.5975038403567</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.2362702795397</v>
+        <v>45.23630011931531</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.17852103711857</v>
+        <v>75.18032147903534</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03888456612971736</v>
+        <v>0.03888749177548976</v>
       </c>
       <c r="D25" t="n">
-        <v>2504.665240081526</v>
+        <v>2504.666787092682</v>
       </c>
       <c r="E25" t="n">
-        <v>31.05540414367486</v>
+        <v>31.05756323865663</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.5736293431456</v>
+        <v>503.5687912378941</v>
       </c>
       <c r="C26" t="n">
-        <v>7.224980567009869</v>
+        <v>7.224738955698788</v>
       </c>
       <c r="D26" t="n">
-        <v>3417.434202137742</v>
+        <v>3417.425252135517</v>
       </c>
       <c r="E26" t="n">
-        <v>58.49186105446388</v>
+        <v>58.49006836811677</v>
       </c>
       <c r="F26" t="n">
-        <v>6.79395908489818</v>
+        <v>6.793962131130559</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.1563375176916</v>
+        <v>187.1544913536713</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4698822942207734</v>
+        <v>0.4698733453343746</v>
       </c>
       <c r="D27" t="n">
-        <v>2829.85237655276</v>
+        <v>2829.848905972703</v>
       </c>
       <c r="E27" t="n">
-        <v>58.49186105446388</v>
+        <v>58.49006836811677</v>
       </c>
       <c r="F27" t="n">
-        <v>7.033222053976192</v>
+        <v>7.033223054543201</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.859706320419</v>
+        <v>171.857646288884</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5403169151979758</v>
+        <v>0.5403132318043269</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.554118722165</v>
+        <v>2791.549694765387</v>
       </c>
       <c r="E28" t="n">
-        <v>15.73198789963435</v>
+        <v>15.73257592807106</v>
       </c>
       <c r="F28" t="n">
-        <v>6.886261213868944</v>
+        <v>6.886254297564125</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.4082121029335</v>
+        <v>183.4060729184861</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4698822942207734</v>
+        <v>0.4698733453343746</v>
       </c>
       <c r="D29" t="n">
-        <v>2821.734935362926</v>
+        <v>2821.73082753427</v>
       </c>
       <c r="E29" t="n">
-        <v>74.22384895409823</v>
+        <v>74.22264429618784</v>
       </c>
       <c r="F29" t="n">
-        <v>7.015514933784917</v>
+        <v>7.015514467276724</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.1962278662527</v>
+        <v>104.1954843294637</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1175775366669198</v>
+        <v>0.1175744956703158</v>
       </c>
       <c r="D30" t="n">
-        <v>2632.147659433054</v>
+        <v>2632.143805923833</v>
       </c>
       <c r="E30" t="n">
-        <v>74.22384895409823</v>
+        <v>74.22264429618784</v>
       </c>
       <c r="F30" t="n">
-        <v>7.172020568185852</v>
+        <v>7.172021827815604</v>
       </c>
       <c r="G30" t="n">
-        <v>97.77335616643431</v>
+        <v>97.77323797410287</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.17697462818217</v>
+        <v>75.17869446868053</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03888205342535875</v>
+        <v>0.03888484794096232</v>
       </c>
       <c r="D31" t="n">
-        <v>2504.662164404195</v>
+        <v>2504.663409480559</v>
       </c>
       <c r="E31" t="n">
-        <v>44.42353809926945</v>
+        <v>44.42192001798801</v>
       </c>
       <c r="F31" t="n">
-        <v>7.304775536345659</v>
+        <v>7.30474806171096</v>
       </c>
       <c r="G31" t="n">
-        <v>94.38652213956385</v>
+        <v>94.3864399980973</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.47146606491299</v>
+        <v>64.4691377007797</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02445551878206699</v>
+        <v>0.02445296290115245</v>
       </c>
       <c r="D32" t="n">
-        <v>2504.662164404195</v>
+        <v>2504.663409480559</v>
       </c>
       <c r="E32" t="n">
-        <v>13.36580652976517</v>
+        <v>13.3644144109844</v>
       </c>
       <c r="F32" t="n">
-        <v>7.506230837906977</v>
+        <v>7.506280181842172</v>
       </c>
       <c r="G32" t="n">
-        <v>95.2303188088426</v>
+        <v>95.23055496157831</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.82336443815865</v>
+        <v>26.82289980077212</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003531272902055983</v>
+        <v>0.003531176435172595</v>
       </c>
       <c r="D33" t="n">
-        <v>2407.218586044881</v>
+        <v>2407.235338270722</v>
       </c>
       <c r="E33" t="n">
-        <v>13.36580652976517</v>
+        <v>13.3644144109844</v>
       </c>
       <c r="F33" t="n">
-        <v>8.04261398341192</v>
+        <v>8.042681678699951</v>
       </c>
       <c r="G33" t="n">
-        <v>94.14990903883132</v>
+        <v>94.15063348019503</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.82336443815865</v>
+        <v>26.82289980077212</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003531272902055983</v>
+        <v>0.003531176435172595</v>
       </c>
       <c r="D34" t="n">
-        <v>112.4534936923387</v>
+        <v>112.451550991337</v>
       </c>
       <c r="E34" t="n">
-        <v>13.36580652976517</v>
+        <v>13.3644144109844</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.8474143240378</v>
+        <v>28.84694941363</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>121.5492366097776</v>
+        <v>121.5472940116153</v>
       </c>
       <c r="E35" t="n">
-        <v>13.36580652976517</v>
+        <v>13.3644144109844</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.227281895936</v>
+        <v>500.2323596401703</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3468.742523771091</v>
+        <v>3468.753726404483</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623142664128376</v>
+        <v>7.623168140290707</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.227281895936</v>
+        <v>515.2323596401703</v>
       </c>
       <c r="C42" t="n">
-        <v>6.790623614135537</v>
+        <v>6.789582045763503</v>
       </c>
       <c r="D42" t="n">
-        <v>3450.535469471803</v>
+        <v>3450.559429947064</v>
       </c>
       <c r="E42" t="n">
-        <v>8.975744166058112</v>
+        <v>8.975491868399404</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>456.0043436124835</v>
+        <v>456.0695478772549</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.23667224925197</v>
+        <v>10.23674362239429</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>541.6346292539919</v>
+        <v>541.6337713281126</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>963.4017051747375</v>
+        <v>963.4000099779454</v>
       </c>
       <c r="E5" t="n">
-        <v>466.2410158617354</v>
+        <v>466.3062914996492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.778727249768967</v>
+        <v>0.7787274588544851</v>
       </c>
       <c r="G5" t="n">
-        <v>0.121143913243962</v>
+        <v>0.1211442530568024</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03145832462111987</v>
+        <v>0.03145814404190183</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0621223613400184</v>
+        <v>0.06212199942220113</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548151025932657</v>
+        <v>0.006548144624609678</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.3422213817573</v>
+        <v>466.3395801142012</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.2468377952995</v>
+        <v>877.2431567652294</v>
       </c>
       <c r="E6" t="n">
-        <v>466.2410158617354</v>
+        <v>466.3062914996492</v>
       </c>
       <c r="F6" t="n">
-        <v>0.778727249768967</v>
+        <v>0.7787274588544851</v>
       </c>
       <c r="G6" t="n">
-        <v>0.121143913243962</v>
+        <v>0.1211442530568024</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03145832462111987</v>
+        <v>0.03145814404190183</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0621223613400184</v>
+        <v>0.06212199942220113</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548151025932657</v>
+        <v>0.006548144624609678</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.271842597094</v>
+        <v>295.2771039986736</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>687.0717806463102</v>
+        <v>687.076870836849</v>
       </c>
       <c r="E7" t="n">
-        <v>466.2410158617354</v>
+        <v>466.3062914996492</v>
       </c>
       <c r="F7" t="n">
-        <v>0.778727249768967</v>
+        <v>0.7787274588544851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.121143913243962</v>
+        <v>0.1211442530568024</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03145832462111987</v>
+        <v>0.03145814404190183</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0621223613400184</v>
+        <v>0.06212199942220113</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548151025932657</v>
+        <v>0.006548144624609678</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.761038196427</v>
+        <v>226.7479263922455</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.9839827409278</v>
+        <v>612.9692792109679</v>
       </c>
       <c r="E8" t="n">
-        <v>466.2410158617354</v>
+        <v>466.3062914996492</v>
       </c>
       <c r="F8" t="n">
-        <v>0.778727249768967</v>
+        <v>0.7787274588544851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121143913243962</v>
+        <v>0.1211442530568024</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03145832462111987</v>
+        <v>0.03145814404190183</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0621223613400184</v>
+        <v>0.06212199942220113</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548151025932657</v>
+        <v>0.006548144624609678</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.8406075553548</v>
+        <v>225.8275217894085</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.9958886806759</v>
+        <v>611.9812159123227</v>
       </c>
       <c r="E9" t="n">
-        <v>466.2410158617354</v>
+        <v>466.3062914996492</v>
       </c>
       <c r="F9" t="n">
-        <v>0.778727249768967</v>
+        <v>0.7787274588544851</v>
       </c>
       <c r="G9" t="n">
-        <v>0.121143913243962</v>
+        <v>0.1211442530568024</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03145832462111987</v>
+        <v>0.03145814404190183</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0621223613400184</v>
+        <v>0.06212199942220113</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548151025932657</v>
+        <v>0.006548144624609678</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.1530844385788</v>
+        <v>166.1547286083299</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.2898033583768</v>
+        <v>548.2909355178372</v>
       </c>
       <c r="E10" t="n">
-        <v>466.2410158617354</v>
+        <v>466.3062914996492</v>
       </c>
       <c r="F10" t="n">
-        <v>0.778727249768967</v>
+        <v>0.7787274588544851</v>
       </c>
       <c r="G10" t="n">
-        <v>0.121143913243962</v>
+        <v>0.1211442530568024</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03145832462111987</v>
+        <v>0.03145814404190183</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0621223613400184</v>
+        <v>0.06212199942220113</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548151025932657</v>
+        <v>0.006548144624609678</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.1858685885867</v>
+        <v>100.186171289617</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.611911755391</v>
+        <v>478.6116302950998</v>
       </c>
       <c r="E11" t="n">
-        <v>466.2410158617354</v>
+        <v>466.3062914996492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.778727249768967</v>
+        <v>0.7787274588544851</v>
       </c>
       <c r="G11" t="n">
-        <v>0.121143913243962</v>
+        <v>0.1211442530568024</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03145832462111987</v>
+        <v>0.03145814404190183</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0621223613400184</v>
+        <v>0.06212199942220113</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548151025932657</v>
+        <v>0.006548144624609678</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.703434197420325</v>
+        <v>9.703501852667369</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5332380518316564</v>
+        <v>0.5332417697269289</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980482924823228</v>
+        <v>8.980470361639631</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980482924823228</v>
+        <v>8.980470361639631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980482924823228</v>
+        <v>8.980470361639631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980482924823228</v>
+        <v>8.980470361639631</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572040089480285</v>
+        <v>3.572035092399858</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944174</v>
+        <v>0.05094889585944168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6618278103053005</v>
+        <v>0.6618955773583489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6908570833558304</v>
+        <v>0.6909068423707715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9579807839422873</v>
+        <v>0.9580098745109057</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.40402382029212</v>
+        <v>55.41132405767011</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.36738065855128</v>
+        <v>34.37114502529003</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488519243232159</v>
+        <v>0.8488515327289994</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.07165006816516</v>
+        <v>14.07336174371496</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7624826719890555</v>
+        <v>0.7624408518932857</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.662923974664522</v>
+        <v>5.663030891326235</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7338574446362343</v>
+        <v>0.7338124372665288</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.302069118911155</v>
+        <v>1.303786397338883</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3771399713736501</v>
+        <v>0.3773662188882683</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1215592790988191</v>
+        <v>0.1216228771306749</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1355873508825826</v>
+        <v>0.1356577105514754</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8965384920315196</v>
+        <v>0.8965423095838327</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42411.60672513358</v>
+        <v>42409.74053719771</v>
       </c>
       <c r="C2" t="n">
-        <v>42840.00679306422</v>
+        <v>42838.12175474517</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91980.69289359977</v>
+        <v>91979.53202737283</v>
       </c>
       <c r="C3" t="n">
-        <v>92909.79080161593</v>
+        <v>92908.6182094675</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40293.53966607132</v>
+        <v>40295.10171993318</v>
       </c>
       <c r="C4" t="n">
-        <v>40700.54511724375</v>
+        <v>40702.12294942746</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.4074561043849</v>
+        <v>515.408778062212</v>
       </c>
       <c r="C5" t="n">
-        <v>520.6135920246312</v>
+        <v>520.6149273355677</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33363.02310440128</v>
+        <v>33363.17608713621</v>
       </c>
       <c r="C6" t="n">
-        <v>33700.02333777906</v>
+        <v>33700.17786579415</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38417.72531925164</v>
+        <v>38419.51079668319</v>
       </c>
       <c r="C7" t="n">
-        <v>38805.78315075923</v>
+        <v>38807.58666331635</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.94902104811401</v>
+        <v>64.96782263058931</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.06010279918216</v>
+        <v>71.04277246277844</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.227253184833514</v>
+        <v>6.225781938761905</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.2351242154541</v>
+        <v>515.2267801841114</v>
       </c>
       <c r="C3" t="n">
-        <v>6.789609471623763</v>
+        <v>6.789944068172247</v>
       </c>
       <c r="D3" t="n">
-        <v>3450.569073542095</v>
+        <v>3450.544977704962</v>
       </c>
       <c r="E3" t="n">
-        <v>58.49006836811677</v>
+        <v>58.49618352362552</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.2981030393224</v>
+        <v>287.3026384405902</v>
       </c>
       <c r="C4" t="n">
-        <v>7.153259785618538</v>
+        <v>7.153736804808751</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.614809047768</v>
+        <v>2770.60846653119</v>
       </c>
       <c r="E4" t="n">
-        <v>58.49006836811677</v>
+        <v>58.49618352362552</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.2312562513407</v>
+        <v>286.253842063601</v>
       </c>
       <c r="C5" t="n">
-        <v>7.153259785618538</v>
+        <v>7.153736804808751</v>
       </c>
       <c r="D5" t="n">
-        <v>1269.722496079351</v>
+        <v>1269.84427676791</v>
       </c>
       <c r="E5" t="n">
-        <v>58.49006836811677</v>
+        <v>58.49618352362552</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.3219216077466</v>
+        <v>161.3165096530378</v>
       </c>
       <c r="C6" t="n">
-        <v>7.153259785618538</v>
+        <v>7.153736804808751</v>
       </c>
       <c r="D6" t="n">
-        <v>685.0190310619646</v>
+        <v>684.9959517270473</v>
       </c>
       <c r="E6" t="n">
-        <v>58.49006836811677</v>
+        <v>58.49618352362552</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.4438284557073</v>
+        <v>155.4470342048764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5498264530161435</v>
+        <v>0.5498723617663341</v>
       </c>
       <c r="D7" t="n">
-        <v>655.7112366686011</v>
+        <v>655.7251193462985</v>
       </c>
       <c r="E7" t="n">
-        <v>58.49006836811677</v>
+        <v>58.49618352362552</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.223299259982</v>
+        <v>169.2286646819142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5434358780729761</v>
+        <v>0.543442833005934</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.280763503144</v>
+        <v>2785.289653836695</v>
       </c>
       <c r="E8" t="n">
-        <v>13.83869448983506</v>
+        <v>13.83713792099685</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.4438283382789</v>
+        <v>155.4470340874428</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5498264530161435</v>
+        <v>0.5498723617663341</v>
       </c>
       <c r="D9" t="n">
-        <v>2752.320004821353</v>
+        <v>2752.3236832562</v>
       </c>
       <c r="E9" t="n">
-        <v>13.83869448983506</v>
+        <v>13.83713792099685</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.2031468846191</v>
+        <v>154.198119567148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5498264530161435</v>
+        <v>0.5498723617663341</v>
       </c>
       <c r="D10" t="n">
-        <v>650.3512507059795</v>
+        <v>650.3295683446183</v>
       </c>
       <c r="E10" t="n">
-        <v>72.32876285795183</v>
+        <v>72.33332144462237</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.2031468846191</v>
+        <v>154.198119567148</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5498264530161435</v>
+        <v>0.5498723617663341</v>
       </c>
       <c r="D11" t="n">
-        <v>650.3512507059795</v>
+        <v>650.3295683446183</v>
       </c>
       <c r="E11" t="n">
-        <v>80.661482359159</v>
+        <v>80.67880691374798</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5498264530161435</v>
+        <v>0.5498723617663341</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6253202814028</v>
+        <v>251.6253588308913</v>
       </c>
       <c r="E12" t="n">
-        <v>80.66969840494454</v>
+        <v>80.67618568754021</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.97266023279815</v>
+        <v>48.97332370635337</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>205.6375180968434</v>
+        <v>205.6402912052212</v>
       </c>
       <c r="E13" t="n">
-        <v>72.32989236386648</v>
+        <v>72.33214676908182</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.4131780817051</v>
+        <v>48.41394051612093</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.2991030305244</v>
+        <v>203.3022896493314</v>
       </c>
       <c r="E14" t="n">
-        <v>63.35440049546708</v>
+        <v>63.35644455755363</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.04198574123279</v>
+        <v>79.04310615533842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04560491038345562</v>
+        <v>0.04560699230533342</v>
       </c>
       <c r="D15" t="n">
-        <v>330.9905895846135</v>
+        <v>330.9952926854054</v>
       </c>
       <c r="E15" t="n">
-        <v>58.9143170164288</v>
+        <v>58.91144302275909</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.2591816050375</v>
+        <v>50.2601892928302</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0456048515136405</v>
+        <v>0.04561144011132313</v>
       </c>
       <c r="D16" t="n">
-        <v>210.4542089365586</v>
+        <v>210.4584283062813</v>
       </c>
       <c r="E16" t="n">
-        <v>58.9128696973322</v>
+        <v>58.91427104945467</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>620.0962979347943</v>
+        <v>620.0937993785553</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.11409722778664</v>
+        <v>78.11378248237432</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.3946640369068</v>
+        <v>64.39716361645341</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>269.6204583225288</v>
+        <v>269.6309240620905</v>
       </c>
       <c r="E19" t="n">
-        <v>78.11409722778664</v>
+        <v>78.11378248237432</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.780325435435</v>
+        <v>102.7831972225421</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1119125521083013</v>
+        <v>0.1119113770816417</v>
       </c>
       <c r="D20" t="n">
-        <v>2651.549742447438</v>
+        <v>2651.547575525958</v>
       </c>
       <c r="E20" t="n">
-        <v>23.02120210739502</v>
+        <v>23.01985221532757</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.3272531230266</v>
+        <v>101.3269565149968</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1063169245028863</v>
+        <v>0.1063158082275596</v>
       </c>
       <c r="D21" t="n">
-        <v>424.7661215520909</v>
+        <v>424.7648698564333</v>
       </c>
       <c r="E21" t="n">
-        <v>23.02120210739502</v>
+        <v>23.01985221532757</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.71635870862158</v>
+        <v>76.71743415878268</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>321.2113939129986</v>
+        <v>321.2158968228231</v>
       </c>
       <c r="E22" t="n">
-        <v>620.0962979347943</v>
+        <v>620.0937993785553</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>620.0962979347943</v>
+        <v>620.0937993785553</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.60770246822874</v>
+        <v>45.60801734254807</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>620.0962979347943</v>
+        <v>620.0937993785553</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.30607792128058</v>
+        <v>80.30720757945647</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04800516882469013</v>
+        <v>0.0480073603214036</v>
       </c>
       <c r="D25" t="n">
-        <v>2543.834409571037</v>
+        <v>2543.826343909247</v>
       </c>
       <c r="E25" t="n">
-        <v>35.89307270194914</v>
+        <v>35.89429360985196</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.4344676040193</v>
+        <v>512.4253544396802</v>
       </c>
       <c r="C26" t="n">
-        <v>6.185884619496268</v>
+        <v>6.186103410356727</v>
       </c>
       <c r="D26" t="n">
-        <v>3450.569073542095</v>
+        <v>3450.544977704962</v>
       </c>
       <c r="E26" t="n">
-        <v>49.51721627370346</v>
+        <v>49.51936085799548</v>
       </c>
       <c r="F26" t="n">
-        <v>6.904419552493555</v>
+        <v>6.904373298783868</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.8689828857888</v>
+        <v>195.8602612898783</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4074528838532439</v>
+        <v>0.4074564350893778</v>
       </c>
       <c r="D27" t="n">
-        <v>2851.862142406307</v>
+        <v>2851.843577571833</v>
       </c>
       <c r="E27" t="n">
-        <v>49.51721627370346</v>
+        <v>49.51936085799548</v>
       </c>
       <c r="F27" t="n">
-        <v>7.144723317113148</v>
+        <v>7.144679802448795</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.6023207720849</v>
+        <v>166.6060189079894</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4619544795806614</v>
+        <v>0.4619457708865715</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.280763503144</v>
+        <v>2785.289653836695</v>
       </c>
       <c r="E28" t="n">
-        <v>13.83869448983506</v>
+        <v>13.83713792099685</v>
       </c>
       <c r="F28" t="n">
-        <v>6.941759166832108</v>
+        <v>6.94178778449257</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.9892836898751</v>
+        <v>188.9842860274181</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4074528838532439</v>
+        <v>0.4074564350893778</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.318915890446</v>
+        <v>2837.308118074314</v>
       </c>
       <c r="E29" t="n">
-        <v>63.35591076353852</v>
+        <v>63.35649877899233</v>
       </c>
       <c r="F29" t="n">
-        <v>7.113485648386488</v>
+        <v>7.113458357460754</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.7807745817842</v>
+        <v>102.7829596280135</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1119048546039694</v>
+        <v>0.1119134339344065</v>
       </c>
       <c r="D30" t="n">
-        <v>2651.550968930499</v>
+        <v>2651.546926577113</v>
       </c>
       <c r="E30" t="n">
-        <v>63.35591076353852</v>
+        <v>63.35649877899233</v>
       </c>
       <c r="F30" t="n">
-        <v>7.245584839264796</v>
+        <v>7.24553972877518</v>
       </c>
       <c r="G30" t="n">
-        <v>98.73789960414555</v>
+        <v>98.73756481994126</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.30878588997507</v>
+        <v>80.30627027674262</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04801042232832104</v>
+        <v>0.04800554198151184</v>
       </c>
       <c r="D31" t="n">
-        <v>2543.845002667455</v>
+        <v>2543.822766399743</v>
       </c>
       <c r="E31" t="n">
-        <v>40.33466644905886</v>
+        <v>40.3393493660852</v>
       </c>
       <c r="F31" t="n">
-        <v>7.324772656011297</v>
+        <v>7.324754209944452</v>
       </c>
       <c r="G31" t="n">
-        <v>95.6793427022086</v>
+        <v>95.67857309276752</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.544199364316</v>
+        <v>42.54663153790096</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008447231852405966</v>
+        <v>0.008448307226655884</v>
       </c>
       <c r="D32" t="n">
-        <v>2543.845002667455</v>
+        <v>2543.822766399743</v>
       </c>
       <c r="E32" t="n">
-        <v>4.441530798134878</v>
+        <v>4.442173508098961</v>
       </c>
       <c r="F32" t="n">
-        <v>8.099793694174169</v>
+        <v>8.099665523727294</v>
       </c>
       <c r="G32" t="n">
-        <v>98.57460004020146</v>
+        <v>98.57348931736331</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.67713212599779</v>
+        <v>23.67736260610076</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002928376314886644</v>
+        <v>0.002928416959095022</v>
       </c>
       <c r="D33" t="n">
-        <v>2539.010231296663</v>
+        <v>2538.983374009372</v>
       </c>
       <c r="E33" t="n">
-        <v>4.441530798134878</v>
+        <v>4.442173508098961</v>
       </c>
       <c r="F33" t="n">
-        <v>8.567936014384838</v>
+        <v>8.56783915096179</v>
       </c>
       <c r="G33" t="n">
-        <v>99.79148011375007</v>
+        <v>99.7903644329118</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.67713212599779</v>
+        <v>23.67736260610076</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002928376314886644</v>
+        <v>0.002928416959095022</v>
       </c>
       <c r="D34" t="n">
-        <v>99.29691134644037</v>
+        <v>99.29787529669389</v>
       </c>
       <c r="E34" t="n">
-        <v>4.441530798134878</v>
+        <v>4.442173508098961</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.69915340577171</v>
+        <v>25.699384047568</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.393125548658</v>
+        <v>108.3940894778693</v>
       </c>
       <c r="E35" t="n">
-        <v>4.441530798134878</v>
+        <v>4.442173508098961</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.2323596401703</v>
+        <v>500.2239008898496</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3468.753726404483</v>
+        <v>3468.735064523642</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623168140290707</v>
+        <v>7.623157475913106</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>8.975491868399404</v>
+        <v>8.975702211528194</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.2323596401703</v>
+        <v>515.2239008898496</v>
       </c>
       <c r="C42" t="n">
-        <v>6.789582045763503</v>
+        <v>6.790366221994605</v>
       </c>
       <c r="D42" t="n">
-        <v>3450.559429947064</v>
+        <v>3450.53017055197</v>
       </c>
       <c r="E42" t="n">
-        <v>8.975491868399404</v>
+        <v>8.975702211528194</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980482924823228</v>
+        <v>8.980470361639631</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980482924823228</v>
+        <v>8.980470361639631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980482924823228</v>
+        <v>8.980470361639631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980482924823228</v>
+        <v>8.980470361639631</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572040089480285</v>
+        <v>3.572035092399858</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944174</v>
+        <v>0.05094889585944168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.714214897786538</v>
+        <v>1.712231982833565</v>
       </c>
       <c r="C2" t="n">
-        <v>1.901493894731906</v>
+        <v>1.899223696104968</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9015095460131503</v>
+        <v>0.9015430811784335</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2466731801962793</v>
+        <v>0.2470015925898609</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>130.2718051924</v>
+        <v>130.3031391177648</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.73030801959983</v>
+        <v>31.73308500389226</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.22629507283847</v>
+        <v>6.226361556520029</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.78155607367502</v>
+        <v>45.78350933489101</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.64630059361608</v>
+        <v>29.64731067937956</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488108540377369</v>
+        <v>0.848810580993979</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.76949747032016</v>
+        <v>11.76917870227659</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7890644678884811</v>
+        <v>0.7890799010108932</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.344284223793468</v>
+        <v>4.345522532563065</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7937322181032964</v>
+        <v>0.7937059163046548</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02147378594531419</v>
+        <v>0.02149742067180133</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03362334168539208</v>
+        <v>0.03365219694397464</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04040111552558157</v>
+        <v>0.04040696165961156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0452773219052406</v>
+        <v>0.04528386039323555</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923035600501222</v>
+        <v>0.8923038210242231</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39767.24355953803</v>
+        <v>39773.72788181222</v>
       </c>
       <c r="C2" t="n">
-        <v>40168.93288842226</v>
+        <v>40175.48270890123</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87780.73771834126</v>
+        <v>87788.97820392973</v>
       </c>
       <c r="C3" t="n">
-        <v>88667.41183670834</v>
+        <v>88675.73555952498</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34197.34245678083</v>
+        <v>34211.26786080474</v>
       </c>
       <c r="C4" t="n">
-        <v>34542.77015836447</v>
+        <v>34556.83622303509</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>456.0830786346095</v>
+        <v>456.1327312325792</v>
       </c>
       <c r="C5" t="n">
-        <v>460.6899784187975</v>
+        <v>460.7401325581608</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29405.36603787066</v>
+        <v>29402.1866707721</v>
       </c>
       <c r="C6" t="n">
-        <v>29702.38993724309</v>
+        <v>29699.17845532535</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32161.82405443922</v>
+        <v>32166.97942855993</v>
       </c>
       <c r="C7" t="n">
-        <v>32486.69096408002</v>
+        <v>32491.89841268679</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.75060342820802</v>
+        <v>50.74760671215813</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.7687480738646</v>
+        <v>80.77039734001578</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.030124889527749</v>
+        <v>7.030914081523936</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25948.20401837469</v>
+        <v>25948.02545586021</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3028.417330391806</v>
+        <v>3029.012344406645</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16994.18704182703</v>
+        <v>16994.30553038472</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.8399135708</v>
+        <v>5906.831650238535</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.424487574115</v>
+        <v>4267.418517690561</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.83302248453</v>
+        <v>15840.81086206228</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29043.51475402125</v>
+        <v>29044.07337439802</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.792867668905192</v>
+        <v>0.7930583752236079</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.9060876667107</v>
+        <v>463.9092492901385</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.3397572225464</v>
+        <v>869.343335334787</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.1332765774334</v>
+        <v>305.1386002532154</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.98171909861</v>
+        <v>692.9875229832803</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7080736696363</v>
+        <v>233.7106904151183</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.7254017016816</v>
+        <v>615.7282106017974</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.7873797829029</v>
+        <v>232.7899946567748</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.7371916226581</v>
+        <v>614.7399979881345</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.8380414778162</v>
+        <v>172.8404095731293</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.769014003231</v>
+        <v>550.7715270491623</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.0485544154125</v>
+        <v>103.0476876938059</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>477.1092659262632</v>
+        <v>477.1083556092361</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.490598751828</v>
+        <v>506.4935912932572</v>
       </c>
       <c r="C3" t="n">
-        <v>7.838050810589494</v>
+        <v>7.838768086574748</v>
       </c>
       <c r="D3" t="n">
-        <v>3417.425252135517</v>
+        <v>3417.424272791915</v>
       </c>
       <c r="E3" t="n">
-        <v>64.07556971358119</v>
+        <v>64.07688576474929</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.827123055292</v>
+        <v>296.8325965214025</v>
       </c>
       <c r="C4" t="n">
-        <v>8.210559581482272</v>
+        <v>8.21119937267782</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.513676066534</v>
+        <v>2755.503925846318</v>
       </c>
       <c r="E4" t="n">
-        <v>64.07556971358119</v>
+        <v>64.07688576474929</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.5263039441616</v>
+        <v>295.5305923343291</v>
       </c>
       <c r="C5" t="n">
-        <v>8.210559581482272</v>
+        <v>8.21119937267782</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.006270871528</v>
+        <v>1320.029709654206</v>
       </c>
       <c r="E5" t="n">
-        <v>64.07556971358119</v>
+        <v>64.07688576474929</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.6014385158627</v>
+        <v>162.6039181065524</v>
       </c>
       <c r="C6" t="n">
-        <v>8.210559581482272</v>
+        <v>8.21119937267782</v>
       </c>
       <c r="D6" t="n">
-        <v>691.1626596683002</v>
+        <v>691.1737374891367</v>
       </c>
       <c r="E6" t="n">
-        <v>64.07556971358119</v>
+        <v>64.07688576474929</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.2332590982583</v>
+        <v>161.2356122069159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6378703192752442</v>
+        <v>0.6379082535970282</v>
       </c>
       <c r="D7" t="n">
-        <v>680.8337962143554</v>
+        <v>680.8440285861725</v>
       </c>
       <c r="E7" t="n">
-        <v>64.07556971358119</v>
+        <v>64.07688576474929</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.6332582663786</v>
+        <v>174.6349033945024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6312183253237581</v>
+        <v>0.6312597049660009</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.549694765387</v>
+        <v>2791.550881232712</v>
       </c>
       <c r="E8" t="n">
-        <v>15.73257592807106</v>
+        <v>15.73318881557166</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.2332589692651</v>
+        <v>161.2356120779181</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6378703192752442</v>
+        <v>0.6379082535970282</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.790270955668</v>
+        <v>2758.792829305093</v>
       </c>
       <c r="E9" t="n">
-        <v>15.73257592807106</v>
+        <v>15.73318881557166</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.2936822321203</v>
+        <v>159.3000255267384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6378703192752442</v>
+        <v>0.6379082535970282</v>
       </c>
       <c r="D10" t="n">
-        <v>672.4235890508335</v>
+        <v>672.4510975387067</v>
       </c>
       <c r="E10" t="n">
-        <v>79.80814564165225</v>
+        <v>79.81007458032096</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.2936822321203</v>
+        <v>159.3000255267384</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6378703192752442</v>
+        <v>0.6379082535970282</v>
       </c>
       <c r="D11" t="n">
-        <v>672.4235890508335</v>
+        <v>672.4510975387067</v>
       </c>
       <c r="E11" t="n">
-        <v>91.31329378734732</v>
+        <v>91.31157484462814</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6378703192752442</v>
+        <v>0.6379082535970282</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6992498476775</v>
+        <v>251.6992817004398</v>
       </c>
       <c r="E12" t="n">
-        <v>91.31509025720975</v>
+        <v>91.31730305020501</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.48017091053111</v>
+        <v>45.4776621664264</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>191.0415712784071</v>
+        <v>191.0310876621444</v>
       </c>
       <c r="E13" t="n">
-        <v>74.2235511469145</v>
+        <v>74.22950055614966</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.48017091053111</v>
+        <v>45.4776621664264</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>191.0415712784071</v>
+        <v>191.0310876621444</v>
       </c>
       <c r="E14" t="n">
-        <v>74.2235511469145</v>
+        <v>74.22950055614966</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.95778080827318</v>
+        <v>73.95022416084038</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03694311718671527</v>
+        <v>0.03693135867991455</v>
       </c>
       <c r="D15" t="n">
-        <v>309.6585767639215</v>
+        <v>309.6268848376462</v>
       </c>
       <c r="E15" t="n">
-        <v>60.85828751685645</v>
+        <v>60.85725728720023</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.26800829427071</v>
+        <v>49.26641558502138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03694297388082775</v>
+        <v>0.03693209677607762</v>
       </c>
       <c r="D16" t="n">
-        <v>206.3022267920589</v>
+        <v>206.2955578159785</v>
       </c>
       <c r="E16" t="n">
-        <v>60.85913673593011</v>
+        <v>60.85809331552701</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.44634574636935</v>
+        <v>61.4419640009172</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>257.2758496400485</v>
+        <v>257.2575032718403</v>
       </c>
       <c r="E19" t="n">
         <v>80.19276921272788</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.1954476553143</v>
+        <v>104.1937650007653</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1175697218716255</v>
+        <v>0.1175774422249198</v>
       </c>
       <c r="D20" t="n">
-        <v>2632.143742171011</v>
+        <v>2632.135034387655</v>
       </c>
       <c r="E20" t="n">
-        <v>29.80054438389535</v>
+        <v>29.8093959723939</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.7263238957268</v>
+        <v>102.7281948218619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1116912357780442</v>
+        <v>0.1116985701136738</v>
       </c>
       <c r="D21" t="n">
-        <v>430.671483119741</v>
+        <v>430.6793818143814</v>
       </c>
       <c r="E21" t="n">
-        <v>29.80054438389535</v>
+        <v>29.8093959723939</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.89616470497629</v>
+        <v>71.88911085023864</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>301.0292416197357</v>
+        <v>300.9997071299492</v>
       </c>
       <c r="E22" t="n">
         <v>636.5975038403567</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.23630011931531</v>
+        <v>45.23574814683714</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.18032147903534</v>
+        <v>75.17270366416795</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03888749177548976</v>
+        <v>0.03887511439991005</v>
       </c>
       <c r="D25" t="n">
-        <v>2504.666787092682</v>
+        <v>2504.645783784473</v>
       </c>
       <c r="E25" t="n">
-        <v>31.05756323865663</v>
+        <v>31.0484623283787</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.5687912378941</v>
+        <v>503.5719880714321</v>
       </c>
       <c r="C26" t="n">
-        <v>7.224738955698788</v>
+        <v>7.225488908359356</v>
       </c>
       <c r="D26" t="n">
-        <v>3417.425252135517</v>
+        <v>3417.424272791915</v>
       </c>
       <c r="E26" t="n">
-        <v>58.49006836811677</v>
+        <v>58.49618352362552</v>
       </c>
       <c r="F26" t="n">
-        <v>6.793962131130559</v>
+        <v>6.793915650223587</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.1544913536713</v>
+        <v>187.1536958758138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4698733453343746</v>
+        <v>0.4699111944386677</v>
       </c>
       <c r="D27" t="n">
-        <v>2829.848905972703</v>
+        <v>2829.844999155915</v>
       </c>
       <c r="E27" t="n">
-        <v>58.49006836811677</v>
+        <v>58.49618352362552</v>
       </c>
       <c r="F27" t="n">
-        <v>7.033223054543201</v>
+        <v>7.033178447233765</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.857646288884</v>
+        <v>171.8595056379316</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5403132318043269</v>
+        <v>0.5403565692109896</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.549694765387</v>
+        <v>2791.550881232712</v>
       </c>
       <c r="E28" t="n">
-        <v>15.73257592807106</v>
+        <v>15.73318881557166</v>
       </c>
       <c r="F28" t="n">
-        <v>6.886254297564125</v>
+        <v>6.886221374365564</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.4060729184861</v>
+        <v>183.4060109137726</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4698733453343746</v>
+        <v>0.4699111944386677</v>
       </c>
       <c r="D29" t="n">
-        <v>2821.73082753427</v>
+        <v>2821.728419844717</v>
       </c>
       <c r="E29" t="n">
-        <v>74.22264429618784</v>
+        <v>74.22937233919718</v>
       </c>
       <c r="F29" t="n">
-        <v>7.015514467276724</v>
+        <v>7.015473113624409</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.1954843294637</v>
+        <v>104.1940462487107</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1175744956703158</v>
+        <v>0.1175686142374362</v>
       </c>
       <c r="D30" t="n">
-        <v>2632.143805923833</v>
+        <v>2632.13552285233</v>
       </c>
       <c r="E30" t="n">
-        <v>74.22264429618784</v>
+        <v>74.22937233919718</v>
       </c>
       <c r="F30" t="n">
-        <v>7.172021827815604</v>
+        <v>7.172022064639741</v>
       </c>
       <c r="G30" t="n">
-        <v>97.77323797410287</v>
+        <v>97.77297241316347</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.17869446868053</v>
+        <v>75.17421886773565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03888484794096232</v>
+        <v>0.03887757602825941</v>
       </c>
       <c r="D31" t="n">
-        <v>2504.663409480559</v>
+        <v>2504.648866323005</v>
       </c>
       <c r="E31" t="n">
-        <v>44.42192001798801</v>
+        <v>44.42057738037565</v>
       </c>
       <c r="F31" t="n">
-        <v>7.30474806171096</v>
+        <v>7.304787110887281</v>
       </c>
       <c r="G31" t="n">
-        <v>94.3864399980973</v>
+        <v>94.38616658619652</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.4691377007797</v>
+        <v>64.48078962797484</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02445296290115245</v>
+        <v>0.02446575567196164</v>
       </c>
       <c r="D32" t="n">
-        <v>2504.663409480559</v>
+        <v>2504.648866323005</v>
       </c>
       <c r="E32" t="n">
-        <v>13.3644144109844</v>
+        <v>13.37140724062265</v>
       </c>
       <c r="F32" t="n">
-        <v>7.506280181842172</v>
+        <v>7.50600863708309</v>
       </c>
       <c r="G32" t="n">
-        <v>95.23055496157831</v>
+        <v>95.22901894765488</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.82289980077212</v>
+        <v>26.82521719621559</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003531176435172595</v>
+        <v>0.003531657590005775</v>
       </c>
       <c r="D33" t="n">
-        <v>2407.235338270722</v>
+        <v>2407.143317813649</v>
       </c>
       <c r="E33" t="n">
-        <v>13.3644144109844</v>
+        <v>13.37140724062265</v>
       </c>
       <c r="F33" t="n">
-        <v>8.042681678699951</v>
+        <v>8.042315818780981</v>
       </c>
       <c r="G33" t="n">
-        <v>94.15063348019503</v>
+        <v>94.1466728644062</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.82289980077212</v>
+        <v>26.82521719621559</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003531176435172595</v>
+        <v>0.003531657590005775</v>
       </c>
       <c r="D34" t="n">
-        <v>112.451550991337</v>
+        <v>112.4612402811545</v>
       </c>
       <c r="E34" t="n">
-        <v>13.3644144109844</v>
+        <v>13.37140724062265</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.84694941363</v>
+        <v>28.8492681692569</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>121.5472940116153</v>
+        <v>121.5569827817032</v>
       </c>
       <c r="E35" t="n">
-        <v>13.3644144109844</v>
+        <v>13.37140724062265</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.2323596401703</v>
+        <v>500.2239008898496</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3468.753726404483</v>
+        <v>3468.735064523642</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623168140290707</v>
+        <v>7.623157475913106</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.2323596401703</v>
+        <v>515.2239008898496</v>
       </c>
       <c r="C42" t="n">
-        <v>6.789582045763503</v>
+        <v>6.790366221994605</v>
       </c>
       <c r="D42" t="n">
-        <v>3450.559429947064</v>
+        <v>3450.53017055197</v>
       </c>
       <c r="E42" t="n">
-        <v>8.975491868399404</v>
+        <v>8.975702211528194</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x6.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6618955773583489</v>
+        <v>0.7069266540317161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6909068423707715</v>
+        <v>0.7219206489410648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9580098745109057</v>
+        <v>0.9792304113598325</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.41132405767011</v>
+        <v>61.774367396811</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.37114502529003</v>
+        <v>37.45209292333647</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488515327289994</v>
+        <v>0.8486208737112437</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.07336174371496</v>
+        <v>15.18031799193864</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7624408518932857</v>
+        <v>0.7521395809029423</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.663030891326235</v>
+        <v>6.159224320163987</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7338124372665288</v>
+        <v>0.671660378326098</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.303786397338883</v>
+        <v>2.982732161371906</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3773662188882683</v>
+        <v>0.5397811740667012</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1216228771306749</v>
+        <v>0.1729134991889373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1356577105514754</v>
+        <v>0.1921507722218852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8965423095838327</v>
+        <v>0.8998844875276704</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42409.74053719771</v>
+        <v>42236.02428312093</v>
       </c>
       <c r="C2" t="n">
-        <v>42838.12175474517</v>
+        <v>42662.65079103124</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91979.53202737283</v>
+        <v>89643.36957995027</v>
       </c>
       <c r="C3" t="n">
-        <v>92908.6182094675</v>
+        <v>90548.85816156594</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40295.10171993318</v>
+        <v>41046.09760328625</v>
       </c>
       <c r="C4" t="n">
-        <v>40702.12294942746</v>
+        <v>41460.70464978409</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.408778062212</v>
+        <v>516.783241467205</v>
       </c>
       <c r="C5" t="n">
-        <v>520.6149273355677</v>
+        <v>522.003274209298</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33363.17608713621</v>
+        <v>33913.98333436985</v>
       </c>
       <c r="C6" t="n">
-        <v>33700.17786579415</v>
+        <v>34256.5488225958</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38419.51079668319</v>
+        <v>39375.83423795671</v>
       </c>
       <c r="C7" t="n">
-        <v>38807.58666331635</v>
+        <v>39773.56993733001</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.96782263058931</v>
+        <v>71.40344953906261</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.04277246277844</v>
+        <v>65.12697487747278</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.225781938761905</v>
+        <v>5.70595261559429</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.9092492901385</v>
+        <v>464.2035424048618</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.343335334787</v>
+        <v>869.6764080351053</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.1386002532154</v>
+        <v>309.5504960605983</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.9875229832803</v>
+        <v>697.7998077117451</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7106904151183</v>
+        <v>236.8513536932007</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.7282106017974</v>
+        <v>619.1005827088112</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.7899946567748</v>
+        <v>235.9287940627439</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.7399979881345</v>
+        <v>618.1097347848245</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.8404095731293</v>
+        <v>175.0202053687582</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.7715270491623</v>
+        <v>553.0851804173556</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.0476876938059</v>
+        <v>103.5047430706098</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>477.1083556092361</v>
+        <v>477.5884141151899</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.4935912932572</v>
+        <v>505.449951217886</v>
       </c>
       <c r="C3" t="n">
-        <v>7.838768086574748</v>
+        <v>8.42575251169345</v>
       </c>
       <c r="D3" t="n">
-        <v>3417.424272791915</v>
+        <v>3407.960145509657</v>
       </c>
       <c r="E3" t="n">
-        <v>64.07688576474929</v>
+        <v>63.87464652882997</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.8325965214025</v>
+        <v>301.4826658687294</v>
       </c>
       <c r="C4" t="n">
-        <v>8.21119937267782</v>
+        <v>8.768734969162253</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.503925846318</v>
+        <v>2746.735980472194</v>
       </c>
       <c r="E4" t="n">
-        <v>64.07688576474929</v>
+        <v>63.87464652882997</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.5305923343291</v>
+        <v>299.746533932757</v>
       </c>
       <c r="C5" t="n">
-        <v>8.21119937267782</v>
+        <v>8.768734969162253</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.029709654206</v>
+        <v>1343.332392511086</v>
       </c>
       <c r="E5" t="n">
-        <v>64.07688576474929</v>
+        <v>63.87464652882997</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.6039181065524</v>
+        <v>164.7424530438639</v>
       </c>
       <c r="C6" t="n">
-        <v>8.21119937267782</v>
+        <v>8.768734969162253</v>
       </c>
       <c r="D6" t="n">
-        <v>691.1737374891367</v>
+        <v>700.7340789066566</v>
       </c>
       <c r="E6" t="n">
-        <v>64.07688576474929</v>
+        <v>63.87464652882997</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.2356122069159</v>
+        <v>163.2629972142055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6379082535970282</v>
+        <v>0.6712652739250786</v>
       </c>
       <c r="D7" t="n">
-        <v>680.8440285861725</v>
+        <v>689.6666727846886</v>
       </c>
       <c r="E7" t="n">
-        <v>64.07688576474929</v>
+        <v>63.87464652882997</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.6349033945024</v>
+        <v>176.3953742353067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6312597049660009</v>
+        <v>0.664721743513246</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.550881232712</v>
+        <v>2793.323678988362</v>
       </c>
       <c r="E8" t="n">
-        <v>15.73318881557166</v>
+        <v>15.97511717280941</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.2356120779181</v>
+        <v>163.2629970810071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6379082535970282</v>
+        <v>0.6712652739250786</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.792829305093</v>
+        <v>2760.974978151809</v>
       </c>
       <c r="E9" t="n">
-        <v>15.73318881557166</v>
+        <v>15.97511717280941</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.3000255267384</v>
+        <v>160.8806480500511</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6379082535970282</v>
+        <v>0.6712652739250786</v>
       </c>
       <c r="D10" t="n">
-        <v>672.4510975387067</v>
+        <v>679.323326806538</v>
       </c>
       <c r="E10" t="n">
-        <v>79.81007458032096</v>
+        <v>79.84976370163938</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.3000255267384</v>
+        <v>160.8806480500511</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6379082535970282</v>
+        <v>0.6712652739250786</v>
       </c>
       <c r="D11" t="n">
-        <v>672.4510975387067</v>
+        <v>679.323326806538</v>
       </c>
       <c r="E11" t="n">
-        <v>91.31157484462814</v>
+        <v>92.08652430292634</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6379082535970282</v>
+        <v>0.6712652739250786</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6992817004398</v>
+        <v>251.7272908484579</v>
       </c>
       <c r="E12" t="n">
-        <v>91.31730305020501</v>
+        <v>92.0852996002568</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.4776621664264</v>
+        <v>44.32282271404739</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>191.0310876621444</v>
+        <v>186.2053471593418</v>
       </c>
       <c r="E13" t="n">
-        <v>74.22950055614966</v>
+        <v>79.8497637016377</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.4776621664264</v>
+        <v>44.32282271404739</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>191.0310876621444</v>
+        <v>186.2053471593418</v>
       </c>
       <c r="E14" t="n">
-        <v>74.22950055614966</v>
+        <v>79.8497637016377</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.95022416084038</v>
+        <v>71.36411693286772</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03693135867991455</v>
+        <v>0.03308816266985636</v>
       </c>
       <c r="D15" t="n">
-        <v>309.6268848376462</v>
+        <v>298.7832342701609</v>
       </c>
       <c r="E15" t="n">
-        <v>60.85725728720023</v>
+        <v>60.83832911566351</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.26641558502138</v>
+        <v>48.72945759322818</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03693209677607762</v>
+        <v>0.03308816266985884</v>
       </c>
       <c r="D16" t="n">
-        <v>206.2955578159785</v>
+        <v>204.0470936763293</v>
       </c>
       <c r="E16" t="n">
-        <v>60.85809331552701</v>
+        <v>60.8383291156769</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.4419640009172</v>
+        <v>59.89377990266208</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>257.2575032718403</v>
+        <v>250.7752564524461</v>
       </c>
       <c r="E19" t="n">
         <v>80.19276921272788</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.1937650007653</v>
+        <v>105.3269307956173</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1175774422249198</v>
+        <v>0.1202447937879125</v>
       </c>
       <c r="D20" t="n">
-        <v>2632.135034387655</v>
+        <v>2625.850122993059</v>
       </c>
       <c r="E20" t="n">
-        <v>29.8093959723939</v>
+        <v>32.89659662431125</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.7281948218619</v>
+        <v>103.3685974366103</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1116985701136738</v>
+        <v>0.1142325540985168</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6793818143814</v>
+        <v>433.3833055958448</v>
       </c>
       <c r="E21" t="n">
-        <v>29.8093959723939</v>
+        <v>32.89659662431125</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.88911085023864</v>
+        <v>69.47463444019735</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>300.9997071299492</v>
+        <v>290.8902944011063</v>
       </c>
       <c r="E22" t="n">
         <v>636.5975038403567</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.23574814683714</v>
+        <v>45.04072198141673</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.17270366416795</v>
+        <v>72.56576630447296</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03887511439991005</v>
+        <v>0.03482964491563827</v>
       </c>
       <c r="D25" t="n">
-        <v>2504.645783784473</v>
+        <v>2494.672085310992</v>
       </c>
       <c r="E25" t="n">
-        <v>31.0484623283787</v>
+        <v>27.94173249136602</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.5719880714321</v>
+        <v>502.7641441698057</v>
       </c>
       <c r="C26" t="n">
-        <v>7.225488908359356</v>
+        <v>7.862390951768321</v>
       </c>
       <c r="D26" t="n">
-        <v>3417.424272791915</v>
+        <v>3407.960145509657</v>
       </c>
       <c r="E26" t="n">
-        <v>58.49618352362552</v>
+        <v>63.87464652882997</v>
       </c>
       <c r="F26" t="n">
-        <v>6.793915650223587</v>
+        <v>6.745026905637078</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.1536958758138</v>
+        <v>184.266823685866</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4699111944386677</v>
+        <v>0.5028902859597765</v>
       </c>
       <c r="D27" t="n">
-        <v>2829.844999155915</v>
+        <v>2821.622765052571</v>
       </c>
       <c r="E27" t="n">
-        <v>58.49618352362552</v>
+        <v>63.87464652882997</v>
       </c>
       <c r="F27" t="n">
-        <v>7.033178447233765</v>
+        <v>6.984889563916322</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.8595056379316</v>
+        <v>173.7128383026256</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5403565692109896</v>
+        <v>0.575518786679831</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.550881232712</v>
+        <v>2793.323678988362</v>
       </c>
       <c r="E28" t="n">
-        <v>15.73318881557166</v>
+        <v>15.97511717280941</v>
       </c>
       <c r="F28" t="n">
-        <v>6.886221374365564</v>
+        <v>6.862250676659189</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.4060109137726</v>
+        <v>181.6860092536858</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4699111944386677</v>
+        <v>0.5028902859597765</v>
       </c>
       <c r="D29" t="n">
-        <v>2821.728419844717</v>
+        <v>2815.961117543527</v>
       </c>
       <c r="E29" t="n">
-        <v>74.22937233919718</v>
+        <v>79.84976370163938</v>
       </c>
       <c r="F29" t="n">
-        <v>7.015473113624409</v>
+        <v>6.972477053315853</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.1940462487107</v>
+        <v>105.3269307956156</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1175686142374362</v>
+        <v>0.1222777662267789</v>
       </c>
       <c r="D30" t="n">
-        <v>2632.13552285233</v>
+        <v>2625.850122993057</v>
       </c>
       <c r="E30" t="n">
-        <v>74.22937233919718</v>
+        <v>79.84976370163938</v>
       </c>
       <c r="F30" t="n">
-        <v>7.172022064639741</v>
+        <v>7.138006992900166</v>
       </c>
       <c r="G30" t="n">
-        <v>97.77297241316347</v>
+        <v>97.4112888317519</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.17421886773565</v>
+        <v>72.56576630447159</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03887757602825941</v>
+        <v>0.03482964491563933</v>
       </c>
       <c r="D31" t="n">
-        <v>2504.648866323005</v>
+        <v>2494.672085310989</v>
       </c>
       <c r="E31" t="n">
-        <v>44.42057738037565</v>
+        <v>46.95316707734189</v>
       </c>
       <c r="F31" t="n">
-        <v>7.304787110887281</v>
+        <v>7.323494860146903</v>
       </c>
       <c r="G31" t="n">
-        <v>94.38616658619652</v>
+        <v>94.16326343587838</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.48078962797484</v>
+        <v>72.56576630447159</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02446575567196164</v>
+        <v>0.03482964491563933</v>
       </c>
       <c r="D32" t="n">
-        <v>2504.648866323005</v>
+        <v>2494.672085310989</v>
       </c>
       <c r="E32" t="n">
-        <v>13.37140724062265</v>
+        <v>19.0114345859608</v>
       </c>
       <c r="F32" t="n">
-        <v>7.50600863708309</v>
+        <v>7.323494860146903</v>
       </c>
       <c r="G32" t="n">
-        <v>95.22901894765488</v>
+        <v>94.16326343587838</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.82521719621559</v>
+        <v>28.63194494708199</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003531657590005775</v>
+        <v>0.003924620645650705</v>
       </c>
       <c r="D33" t="n">
-        <v>2407.143317813649</v>
+        <v>2337.780602562258</v>
       </c>
       <c r="E33" t="n">
-        <v>13.37140724062265</v>
+        <v>19.0114345859608</v>
       </c>
       <c r="F33" t="n">
-        <v>8.042315818780981</v>
+        <v>7.766748959531635</v>
       </c>
       <c r="G33" t="n">
-        <v>94.1466728644062</v>
+        <v>91.15128194116335</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.82521719621559</v>
+        <v>28.63194494708199</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003531657590005775</v>
+        <v>0.003924620645650705</v>
       </c>
       <c r="D34" t="n">
-        <v>112.4612402811545</v>
+        <v>120.0148900374386</v>
       </c>
       <c r="E34" t="n">
-        <v>13.37140724062265</v>
+        <v>19.0114345859608</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.8492681692569</v>
+        <v>30.65699492020661</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>121.5569827817032</v>
+        <v>129.1101268228113</v>
       </c>
       <c r="E35" t="n">
-        <v>13.37140724062265</v>
+        <v>19.0114345859608</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>456.0695478772549</v>
+        <v>456.0028389692004</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.23674362239429</v>
+        <v>10.23669661540283</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>541.6337713281126</v>
+        <v>541.6346650847532</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>963.4000099779454</v>
+        <v>963.401775973643</v>
       </c>
       <c r="E5" t="n">
-        <v>466.3062914996492</v>
+        <v>466.2395355846032</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787274588544851</v>
+        <v>0.778727241036633</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211442530568024</v>
+        <v>0.1211438990518779</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03145814404190183</v>
+        <v>0.03145833216290503</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06212199942220113</v>
+        <v>0.06212237645530383</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548144624609678</v>
+        <v>0.006548151293280157</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.3395801142012</v>
+        <v>466.3385093572881</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.2431567652294</v>
+        <v>877.2426556767331</v>
       </c>
       <c r="E6" t="n">
-        <v>466.3062914996492</v>
+        <v>466.2395355846032</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787274588544851</v>
+        <v>0.778727241036633</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211442530568024</v>
+        <v>0.1211438990518779</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03145814404190183</v>
+        <v>0.03145833216290503</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06212199942220113</v>
+        <v>0.06212237645530383</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548144624609678</v>
+        <v>0.006548151293280157</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.2771039986736</v>
+        <v>295.2703000576557</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>687.076870836849</v>
+        <v>687.070126814543</v>
       </c>
       <c r="E7" t="n">
-        <v>466.3062914996492</v>
+        <v>466.2395355846032</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787274588544851</v>
+        <v>0.778727241036633</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211442530568024</v>
+        <v>0.1211438990518779</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03145814404190183</v>
+        <v>0.03145833216290503</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06212199942220113</v>
+        <v>0.06212237645530383</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548144624609678</v>
+        <v>0.006548151293280157</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.7479263922455</v>
+        <v>226.7621069936087</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.9692792109679</v>
+        <v>612.9851563826003</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3062914996492</v>
+        <v>466.2395355846032</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787274588544851</v>
+        <v>0.778727241036633</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211442530568024</v>
+        <v>0.1211438990518779</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03145814404190183</v>
+        <v>0.03145833216290503</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06212199942220113</v>
+        <v>0.06212237645530383</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548144624609678</v>
+        <v>0.006548151293280157</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.8275217894085</v>
+        <v>225.8416718569874</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.9812159123227</v>
+        <v>611.9970572757497</v>
       </c>
       <c r="E9" t="n">
-        <v>466.3062914996492</v>
+        <v>466.2395355846032</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787274588544851</v>
+        <v>0.778727241036633</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211442530568024</v>
+        <v>0.1211438990518779</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03145814404190183</v>
+        <v>0.03145833216290503</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06212199942220113</v>
+        <v>0.06212237645530383</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548144624609678</v>
+        <v>0.006548151293280157</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.1547286083299</v>
+        <v>166.1532222126225</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.2909355178372</v>
+        <v>548.2899752354758</v>
       </c>
       <c r="E10" t="n">
-        <v>466.3062914996492</v>
+        <v>466.2395355846032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787274588544851</v>
+        <v>0.778727241036633</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211442530568024</v>
+        <v>0.1211438990518779</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03145814404190183</v>
+        <v>0.03145833216290503</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06212199942220113</v>
+        <v>0.06212237645530383</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548144624609678</v>
+        <v>0.006548151293280157</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.186171289617</v>
+        <v>100.1854281129207</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.6116302950998</v>
+        <v>478.611473676444</v>
       </c>
       <c r="E11" t="n">
-        <v>466.3062914996492</v>
+        <v>466.2395355846032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787274588544851</v>
+        <v>0.778727241036633</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211442530568024</v>
+        <v>0.1211438990518779</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03145814404190183</v>
+        <v>0.03145833216290503</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06212199942220113</v>
+        <v>0.06212237645530383</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548144624609678</v>
+        <v>0.006548151293280157</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.703501852667369</v>
+        <v>9.703457294315067</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5332417697269289</v>
+        <v>0.5332393210877677</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980470361639631</v>
+        <v>8.980467294121498</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980470361639631</v>
+        <v>8.980467294121498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980470361639631</v>
+        <v>8.980467294121498</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980470361639631</v>
+        <v>8.980467294121498</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572035092399858</v>
+        <v>3.572033872276414</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944168</v>
+        <v>0.05094889585944165</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
@@ -1158,7 +1158,7 @@
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7069266540317161</v>
+        <v>0.7069077982048526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7219206489410648</v>
+        <v>0.7219097578747814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9792304113598325</v>
+        <v>0.979219065116819</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.774367396811</v>
+        <v>61.77533637652284</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.45209292333647</v>
+        <v>37.4532142321241</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8486208737112437</v>
+        <v>0.8486202775184217</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.18031799193864</v>
+        <v>15.18031979061111</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7521395809029423</v>
+        <v>0.7521362225455223</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.159224320163987</v>
+        <v>6.15914688645409</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.671660378326098</v>
+        <v>0.671660523185462</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.982732161371906</v>
+        <v>2.982655467333545</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5397811740667012</v>
+        <v>0.5397752751846143</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1729134991889373</v>
+        <v>0.1729113707522846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1921507722218852</v>
+        <v>0.1921484391108474</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8998844875276704</v>
+        <v>0.8998843370907362</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42236.02428312093</v>
+        <v>42235.16818168743</v>
       </c>
       <c r="C2" t="n">
-        <v>42662.65079103124</v>
+        <v>42661.78604210852</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89643.36957995027</v>
+        <v>89645.7284842361</v>
       </c>
       <c r="C3" t="n">
-        <v>90548.85816156594</v>
+        <v>90551.24089316778</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41046.09760328625</v>
+        <v>41045.69291597357</v>
       </c>
       <c r="C4" t="n">
-        <v>41460.70464978409</v>
+        <v>41460.29587472077</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.783241467205</v>
+        <v>516.7821301319826</v>
       </c>
       <c r="C5" t="n">
-        <v>522.003274209298</v>
+        <v>522.0021516484674</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33913.98333436985</v>
+        <v>33913.09046762637</v>
       </c>
       <c r="C6" t="n">
-        <v>34256.5488225958</v>
+        <v>34255.64693699633</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39375.83423795671</v>
+        <v>39375.31669013888</v>
       </c>
       <c r="C7" t="n">
-        <v>39773.56993733001</v>
+        <v>39773.04716175644</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.40344953906261</v>
+        <v>71.40413581385728</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.12697487747278</v>
+        <v>65.12634999983928</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.70595261559429</v>
+        <v>5.705891218433138</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.2267801841114</v>
+        <v>515.2305404412333</v>
       </c>
       <c r="C3" t="n">
-        <v>6.789944068172247</v>
+        <v>6.789347733387743</v>
       </c>
       <c r="D3" t="n">
-        <v>3450.544977704962</v>
+        <v>3450.560333550266</v>
       </c>
       <c r="E3" t="n">
-        <v>58.49618352362552</v>
+        <v>58.48443283928848</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.3026384405902</v>
+        <v>287.2966702270872</v>
       </c>
       <c r="C4" t="n">
-        <v>7.153736804808751</v>
+        <v>7.153109092007159</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.60846653119</v>
+        <v>2770.616812600385</v>
       </c>
       <c r="E4" t="n">
-        <v>58.49618352362552</v>
+        <v>58.48443283928848</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.253842063601</v>
+        <v>286.232539987108</v>
       </c>
       <c r="C5" t="n">
-        <v>7.153736804808751</v>
+        <v>7.153109092007159</v>
       </c>
       <c r="D5" t="n">
-        <v>1269.84427676791</v>
+        <v>1269.729548079317</v>
       </c>
       <c r="E5" t="n">
-        <v>58.49618352362552</v>
+        <v>58.48443283928848</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.3165096530378</v>
+        <v>161.3301080886683</v>
       </c>
       <c r="C6" t="n">
-        <v>7.153736804808751</v>
+        <v>7.153109092007159</v>
       </c>
       <c r="D6" t="n">
-        <v>684.9959517270473</v>
+        <v>685.0542784899915</v>
       </c>
       <c r="E6" t="n">
-        <v>58.49618352362552</v>
+        <v>58.48443283928848</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.4470342048764</v>
+        <v>155.4438288255306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5498723617663341</v>
+        <v>0.5498264583121431</v>
       </c>
       <c r="D7" t="n">
-        <v>655.7251193462985</v>
+        <v>655.7112382701437</v>
       </c>
       <c r="E7" t="n">
-        <v>58.49618352362552</v>
+        <v>58.48443283928848</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.2286646819142</v>
+        <v>169.2217021937772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.543442833005934</v>
+        <v>0.5434365024044778</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.289653836695</v>
+        <v>2785.277190437403</v>
       </c>
       <c r="E8" t="n">
-        <v>13.83713792099685</v>
+        <v>13.83915757658715</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.4470340874428</v>
+        <v>155.4438287081028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5498723617663341</v>
+        <v>0.5498264583121431</v>
       </c>
       <c r="D9" t="n">
-        <v>2752.3236832562</v>
+        <v>2752.320005245711</v>
       </c>
       <c r="E9" t="n">
-        <v>13.83713792099685</v>
+        <v>13.83915757658715</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.198119567148</v>
+        <v>154.1979498137779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5498723617663341</v>
+        <v>0.5498264583121431</v>
       </c>
       <c r="D10" t="n">
-        <v>650.3295683446183</v>
+        <v>650.3288076035709</v>
       </c>
       <c r="E10" t="n">
-        <v>72.33332144462237</v>
+        <v>72.32359041587563</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.198119567148</v>
+        <v>154.1979498137779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5498723617663341</v>
+        <v>0.5498264583121431</v>
       </c>
       <c r="D11" t="n">
-        <v>650.3295683446183</v>
+        <v>650.3288076035709</v>
       </c>
       <c r="E11" t="n">
-        <v>80.67880691374798</v>
+        <v>80.66647236814555</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5498723617663341</v>
+        <v>0.5498264583121431</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6253588308913</v>
+        <v>251.6253202858121</v>
       </c>
       <c r="E12" t="n">
-        <v>80.67618568754021</v>
+        <v>80.66422470976899</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.97332370635337</v>
+        <v>48.97355463661222</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>205.6402912052212</v>
+        <v>205.641256420271</v>
       </c>
       <c r="E13" t="n">
-        <v>72.33214676908182</v>
+        <v>72.3302346419074</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.41394051612093</v>
+        <v>48.41420934801846</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.3022896493314</v>
+        <v>203.303413240751</v>
       </c>
       <c r="E14" t="n">
-        <v>63.35644455755363</v>
+        <v>63.35484245808486</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.04310615533842</v>
+        <v>79.04595754357501</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04560699230533342</v>
+        <v>0.04561229103469625</v>
       </c>
       <c r="D15" t="n">
-        <v>330.9952926854054</v>
+        <v>331.0072618057964</v>
       </c>
       <c r="E15" t="n">
-        <v>58.91144302275909</v>
+        <v>58.91662743861433</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.2601892928302</v>
+        <v>50.25985484942521</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04561144011132313</v>
+        <v>0.045608780015402</v>
       </c>
       <c r="D16" t="n">
-        <v>210.4584283062813</v>
+        <v>210.4570275236792</v>
       </c>
       <c r="E16" t="n">
-        <v>58.91427104945467</v>
+        <v>58.91440488709286</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>620.0937993785553</v>
+        <v>620.0976743604788</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.11378248237432</v>
+        <v>78.11427061738775</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.39716361645341</v>
+        <v>64.39625637989374</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>269.6309240620905</v>
+        <v>269.6271254626151</v>
       </c>
       <c r="E19" t="n">
-        <v>78.11378248237432</v>
+        <v>78.11427061738775</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.7831972225421</v>
+        <v>102.7816746106847</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1119113770816417</v>
+        <v>0.1119087906850151</v>
       </c>
       <c r="D20" t="n">
-        <v>2651.547575525958</v>
+        <v>2651.551577992963</v>
       </c>
       <c r="E20" t="n">
-        <v>23.01985221532757</v>
+        <v>23.01683118733738</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.3269565149968</v>
+        <v>101.3263036164474</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1063158082275596</v>
+        <v>0.1063133511507643</v>
       </c>
       <c r="D21" t="n">
-        <v>424.7648698564333</v>
+        <v>424.7621146034513</v>
       </c>
       <c r="E21" t="n">
-        <v>23.01985221532757</v>
+        <v>23.01683118733738</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.71743415878268</v>
+        <v>76.72006209456842</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>321.2158968228231</v>
+        <v>321.226899989958</v>
       </c>
       <c r="E22" t="n">
-        <v>620.0937993785553</v>
+        <v>620.0976743604788</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>620.0937993785553</v>
+        <v>620.0976743604788</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.60801734254807</v>
+        <v>45.60790305712971</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>620.0937993785553</v>
+        <v>620.0976743604788</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.30720757945647</v>
+        <v>80.31008249349213</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0480073603214036</v>
+        <v>0.04801293793125921</v>
       </c>
       <c r="D25" t="n">
-        <v>2543.826343909247</v>
+        <v>2543.847564403746</v>
       </c>
       <c r="E25" t="n">
-        <v>35.89429360985196</v>
+        <v>35.89765463808521</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.4253544396802</v>
+        <v>512.4297780795256</v>
       </c>
       <c r="C26" t="n">
-        <v>6.186103410356727</v>
+        <v>6.185667529689615</v>
       </c>
       <c r="D26" t="n">
-        <v>3450.544977704962</v>
+        <v>3450.560333550266</v>
       </c>
       <c r="E26" t="n">
-        <v>49.51936085799548</v>
+        <v>49.51560856044404</v>
       </c>
       <c r="F26" t="n">
-        <v>6.904373298783868</v>
+        <v>6.904423887472511</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.8602612898783</v>
+        <v>195.8676037340261</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4074564350893778</v>
+        <v>0.4074464461804972</v>
       </c>
       <c r="D27" t="n">
-        <v>2851.843577571833</v>
+        <v>2851.859572568381</v>
       </c>
       <c r="E27" t="n">
-        <v>49.51936085799548</v>
+        <v>49.51560856044404</v>
       </c>
       <c r="F27" t="n">
-        <v>7.144679802448795</v>
+        <v>7.144724965997655</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.6060189079894</v>
+        <v>166.6006313054197</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4619457708865715</v>
+        <v>0.461951689562577</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.289653836695</v>
+        <v>2785.277190437403</v>
       </c>
       <c r="E28" t="n">
-        <v>13.83713792099685</v>
+        <v>13.83915757658715</v>
       </c>
       <c r="F28" t="n">
-        <v>6.94178778449257</v>
+        <v>6.941753733079551</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.9842860274181</v>
+        <v>188.987446224943</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4074564350893778</v>
+        <v>0.4074464461804972</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.308118074314</v>
+        <v>2837.315377485376</v>
       </c>
       <c r="E29" t="n">
-        <v>63.35649877899233</v>
+        <v>63.3547661370312</v>
       </c>
       <c r="F29" t="n">
-        <v>7.113458357460754</v>
+        <v>7.113485108834088</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.7829596280135</v>
+        <v>102.7818152839794</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1119134339344065</v>
+        <v>0.1119089407325646</v>
       </c>
       <c r="D30" t="n">
-        <v>2651.546926577113</v>
+        <v>2651.55196219681</v>
       </c>
       <c r="E30" t="n">
-        <v>63.35649877899233</v>
+        <v>63.3547661370312</v>
       </c>
       <c r="F30" t="n">
-        <v>7.24553972877518</v>
+        <v>7.245571117357339</v>
       </c>
       <c r="G30" t="n">
-        <v>98.73756481994126</v>
+        <v>98.73786992213833</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.30627027674262</v>
+        <v>80.31051700600307</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04800554198151184</v>
+        <v>0.04801378097466298</v>
       </c>
       <c r="D31" t="n">
-        <v>2543.822766399743</v>
+        <v>2543.849190166706</v>
       </c>
       <c r="E31" t="n">
-        <v>40.3393493660852</v>
+        <v>40.33579333650209</v>
       </c>
       <c r="F31" t="n">
-        <v>7.324754209944452</v>
+        <v>7.324753905201554</v>
       </c>
       <c r="G31" t="n">
-        <v>95.67857309276752</v>
+        <v>95.67939058998465</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.54663153790096</v>
+        <v>42.53993656976564</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008448307226655884</v>
+        <v>0.00844534736219173</v>
       </c>
       <c r="D32" t="n">
-        <v>2543.822766399743</v>
+        <v>2543.849190166706</v>
       </c>
       <c r="E32" t="n">
-        <v>4.442173508098961</v>
+        <v>4.440437570991996</v>
       </c>
       <c r="F32" t="n">
-        <v>8.099665523727294</v>
+        <v>8.099908151650787</v>
       </c>
       <c r="G32" t="n">
-        <v>98.57348931736331</v>
+        <v>98.5750973061166</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.67736260610076</v>
+        <v>23.67671637648459</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002928416959095022</v>
+        <v>0.002928303000433844</v>
       </c>
       <c r="D33" t="n">
-        <v>2538.983374009372</v>
+        <v>2539.022369903039</v>
       </c>
       <c r="E33" t="n">
-        <v>4.442173508098961</v>
+        <v>4.440437570991996</v>
       </c>
       <c r="F33" t="n">
-        <v>8.56783915096179</v>
+        <v>8.567988421574285</v>
       </c>
       <c r="G33" t="n">
-        <v>99.7903644329118</v>
+        <v>99.79200753302244</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.67736260610076</v>
+        <v>23.67671637648459</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002928416959095022</v>
+        <v>0.002928303000433844</v>
       </c>
       <c r="D34" t="n">
-        <v>99.29787529669389</v>
+        <v>99.29517253320363</v>
       </c>
       <c r="E34" t="n">
-        <v>4.442173508098961</v>
+        <v>4.440437570991996</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.699384047568</v>
+        <v>25.69873736435301</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.3940894778693</v>
+        <v>108.391386772069</v>
       </c>
       <c r="E35" t="n">
-        <v>4.442173508098961</v>
+        <v>4.440437570991996</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.2239008898496</v>
+        <v>500.2281957639698</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3468.735064523642</v>
+        <v>3468.744539966727</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623157475913106</v>
+        <v>7.623154872021233</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>8.975702211528194</v>
+        <v>8.975392183822535</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.2239008898496</v>
+        <v>515.2281957639698</v>
       </c>
       <c r="C42" t="n">
-        <v>6.790366221994605</v>
+        <v>6.789219964762172</v>
       </c>
       <c r="D42" t="n">
-        <v>3450.53017055197</v>
+        <v>3450.553209893358</v>
       </c>
       <c r="E42" t="n">
-        <v>8.975702211528194</v>
+        <v>8.975392183822535</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980470361639631</v>
+        <v>8.980467294121498</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980470361639631</v>
+        <v>8.980467294121498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980470361639631</v>
+        <v>8.980467294121498</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980470361639631</v>
+        <v>8.980467294121498</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572035092399858</v>
+        <v>3.572033872276414</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944168</v>
+        <v>0.05094889585944165</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
@@ -3415,7 +3415,7 @@
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.712231982833565</v>
+        <v>1.71611106503823</v>
       </c>
       <c r="C2" t="n">
-        <v>1.899223696104968</v>
+        <v>1.903638603345444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9015430811784335</v>
+        <v>0.9014899477360596</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2470015925898609</v>
+        <v>0.2463712719761126</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>130.3031391177648</v>
+        <v>130.2710821357028</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.73308500389226</v>
+        <v>31.73024394343689</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.226361556520029</v>
+        <v>6.226293538671567</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.78350933489101</v>
+        <v>45.7797402064642</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.64731067937956</v>
+        <v>29.64503252561902</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.848810580993979</v>
+        <v>0.8488112675810207</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.76917870227659</v>
+        <v>11.76899773242332</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7890799010108932</v>
+        <v>0.7890765568687665</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.345522532563065</v>
+        <v>4.344276754374651</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7937059163046548</v>
+        <v>0.7937369582849187</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02149742067180133</v>
+        <v>0.02143319404721371</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03365219694397464</v>
+        <v>0.03357424828731854</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04040696165961156</v>
+        <v>0.04039117146005022</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04528386039323555</v>
+        <v>0.04526620006915393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923038210242231</v>
+        <v>0.8923031179631592</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39773.72788181222</v>
+        <v>39769.08035127315</v>
       </c>
       <c r="C2" t="n">
-        <v>40175.48270890123</v>
+        <v>40170.78823360924</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87788.97820392973</v>
+        <v>87779.29202228051</v>
       </c>
       <c r="C3" t="n">
-        <v>88675.73555952498</v>
+        <v>88665.95153765708</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34211.26786080474</v>
+        <v>34195.92878590814</v>
       </c>
       <c r="C4" t="n">
-        <v>34556.83622303509</v>
+        <v>34541.34220798802</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>456.1327312325792</v>
+        <v>456.0839600026619</v>
       </c>
       <c r="C5" t="n">
-        <v>460.7401325581608</v>
+        <v>460.6908686895574</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29402.1866707721</v>
+        <v>29405.73274046845</v>
       </c>
       <c r="C6" t="n">
-        <v>29699.17845532535</v>
+        <v>29702.76034390753</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32166.97942855993</v>
+        <v>32162.00348504291</v>
       </c>
       <c r="C7" t="n">
-        <v>32491.89841268679</v>
+        <v>32486.87220711405</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.74760671215813</v>
+        <v>50.74110079689221</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.77039734001578</v>
+        <v>80.77802183946136</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.030914081523936</v>
+        <v>7.030661293057467</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25948.02545586021</v>
+        <v>25948.08882539318</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3029.012344406645</v>
+        <v>3028.15487267128</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16994.30553038472</v>
+        <v>16994.22749275825</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.831650238535</v>
+        <v>5906.829632603326</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.418517690561</v>
+        <v>4267.417060040443</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.81086206228</v>
+        <v>15840.80545121267</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29044.07337439802</v>
+        <v>29043.20701652772</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7930583752236079</v>
+        <v>0.7928632681964034</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.2035424048618</v>
+        <v>464.2049926781221</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.6764080351053</v>
+        <v>869.6780494705467</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.5504960605983</v>
+        <v>309.547855745574</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>697.7998077117451</v>
+        <v>697.7969263313772</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.8513536932007</v>
+        <v>236.8493935260397</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>619.1005827088112</v>
+        <v>619.0984772506317</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.9287940627439</v>
+        <v>235.926835509336</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1097347848245</v>
+        <v>618.1076314574498</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.0202053687582</v>
+        <v>175.0198366820597</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.0851804173556</v>
+        <v>553.0847890169324</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.5047430706098</v>
+        <v>103.5053151736108</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>477.5884141151899</v>
+        <v>477.5890150286418</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.449951217886</v>
+        <v>505.4531287456655</v>
       </c>
       <c r="C3" t="n">
-        <v>8.42575251169345</v>
+        <v>8.425682581733186</v>
       </c>
       <c r="D3" t="n">
-        <v>3407.960145509657</v>
+        <v>3407.972153979801</v>
       </c>
       <c r="E3" t="n">
-        <v>63.87464652882997</v>
+        <v>63.87570819293619</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.4826658687294</v>
+        <v>301.4798035549262</v>
       </c>
       <c r="C4" t="n">
-        <v>8.768734969162253</v>
+        <v>8.768383078297262</v>
       </c>
       <c r="D4" t="n">
-        <v>2746.735980472194</v>
+        <v>2746.741683771898</v>
       </c>
       <c r="E4" t="n">
-        <v>63.87464652882997</v>
+        <v>63.87570819293619</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.746533932757</v>
+        <v>299.7435813969843</v>
       </c>
       <c r="C5" t="n">
-        <v>8.768734969162253</v>
+        <v>8.768383078297262</v>
       </c>
       <c r="D5" t="n">
-        <v>1343.332392511086</v>
+        <v>1343.315892135894</v>
       </c>
       <c r="E5" t="n">
-        <v>63.87464652882997</v>
+        <v>63.87570819293619</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.7424530438639</v>
+        <v>164.7423160833254</v>
       </c>
       <c r="C6" t="n">
-        <v>8.768734969162253</v>
+        <v>8.768383078297262</v>
       </c>
       <c r="D6" t="n">
-        <v>700.7340789066566</v>
+        <v>700.7332833304126</v>
       </c>
       <c r="E6" t="n">
-        <v>63.87464652882997</v>
+        <v>63.87570819293619</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.2629972142055</v>
+        <v>163.2629245556024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6712652739250786</v>
+        <v>0.6712640541083624</v>
       </c>
       <c r="D7" t="n">
-        <v>689.6666727846886</v>
+        <v>689.6663563529513</v>
       </c>
       <c r="E7" t="n">
-        <v>63.87464652882997</v>
+        <v>63.87570819293619</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.3953742353067</v>
+        <v>176.3951351298313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.664721743513246</v>
+        <v>0.6647062653671372</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.323678988362</v>
+        <v>2793.323220551254</v>
       </c>
       <c r="E8" t="n">
-        <v>15.97511717280941</v>
+        <v>15.97372099734976</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.2629970810071</v>
+        <v>163.2629244224043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6712652739250786</v>
+        <v>0.6712640541083624</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.974978151809</v>
+        <v>2760.974900741108</v>
       </c>
       <c r="E9" t="n">
-        <v>15.97511717280941</v>
+        <v>15.97372099734976</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.8806480500511</v>
+        <v>160.8810112007258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6712652739250786</v>
+        <v>0.6712640541083624</v>
       </c>
       <c r="D10" t="n">
-        <v>679.323326806538</v>
+        <v>679.3249014093876</v>
       </c>
       <c r="E10" t="n">
-        <v>79.84976370163938</v>
+        <v>79.84942919028595</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.8806480500511</v>
+        <v>160.8810112007258</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6712652739250786</v>
+        <v>0.6712640541083624</v>
       </c>
       <c r="D11" t="n">
-        <v>679.323326806538</v>
+        <v>679.3249014093876</v>
       </c>
       <c r="E11" t="n">
-        <v>92.08652430292634</v>
+        <v>92.08497551556626</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6712652739250786</v>
+        <v>0.6712640541083624</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7272908484579</v>
+        <v>251.7272898242521</v>
       </c>
       <c r="E12" t="n">
-        <v>92.0852996002568</v>
+        <v>92.0850028708263</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.32282271404739</v>
+        <v>44.32278839307423</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>186.2053471593418</v>
+        <v>186.2052037458404</v>
       </c>
       <c r="E13" t="n">
-        <v>79.8497637016377</v>
+        <v>79.84942919028198</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.32282271404739</v>
+        <v>44.32278839307423</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>186.2053471593418</v>
+        <v>186.2052037458404</v>
       </c>
       <c r="E14" t="n">
-        <v>79.8497637016377</v>
+        <v>79.84942919028198</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.36411693286772</v>
+        <v>71.36384133164967</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03308816266985636</v>
+        <v>0.03308777185798719</v>
       </c>
       <c r="D15" t="n">
-        <v>298.7832342701609</v>
+        <v>298.7820788981806</v>
       </c>
       <c r="E15" t="n">
-        <v>60.83832911566351</v>
+        <v>60.83822867092858</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.72945759322818</v>
+        <v>48.72938774086975</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03308816266985884</v>
+        <v>0.03308777185799023</v>
       </c>
       <c r="D16" t="n">
-        <v>204.0470936763293</v>
+        <v>204.0468012746171</v>
       </c>
       <c r="E16" t="n">
-        <v>60.8383291156769</v>
+        <v>60.838228670926</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.89377990266208</v>
+        <v>59.89359704628146</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>250.7752564524461</v>
+        <v>250.7744908327805</v>
       </c>
       <c r="E19" t="n">
         <v>80.19276921272788</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.3269307956173</v>
+        <v>105.3265673656573</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1202447937879125</v>
+        <v>0.1202450812278164</v>
       </c>
       <c r="D20" t="n">
-        <v>2625.850122993059</v>
+        <v>2625.853042673259</v>
       </c>
       <c r="E20" t="n">
-        <v>32.89659662431125</v>
+        <v>32.8968733194309</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103.3685974366103</v>
+        <v>103.3686657271093</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1142325540985168</v>
+        <v>0.1142328271664256</v>
       </c>
       <c r="D21" t="n">
-        <v>433.3833055958448</v>
+        <v>433.3835939622991</v>
       </c>
       <c r="E21" t="n">
-        <v>32.89659662431125</v>
+        <v>32.8968733194309</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.47463444019735</v>
+        <v>69.4743769681086</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>290.8902944011063</v>
+        <v>290.8892163654708</v>
       </c>
       <c r="E22" t="n">
         <v>636.5975038403567</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.04072198141673</v>
+        <v>45.04069894683138</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.56576630447296</v>
+        <v>72.56548849435217</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03482964491563827</v>
+        <v>0.03482923353472336</v>
       </c>
       <c r="D25" t="n">
-        <v>2494.672085310992</v>
+        <v>2494.674946567161</v>
       </c>
       <c r="E25" t="n">
-        <v>27.94173249136602</v>
+        <v>27.94135535149945</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.7641441698057</v>
+        <v>502.7697872803359</v>
       </c>
       <c r="C26" t="n">
-        <v>7.862390951768321</v>
+        <v>7.862551861475536</v>
       </c>
       <c r="D26" t="n">
-        <v>3407.960145509657</v>
+        <v>3407.972153979801</v>
       </c>
       <c r="E26" t="n">
-        <v>63.87464652882997</v>
+        <v>63.87570819293619</v>
       </c>
       <c r="F26" t="n">
-        <v>6.745026905637078</v>
+        <v>6.745033517731527</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>184.266823685866</v>
+        <v>184.2687052286954</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5028902859597765</v>
+        <v>0.5028889501656209</v>
       </c>
       <c r="D27" t="n">
-        <v>2821.622765052571</v>
+        <v>2821.62696436567</v>
       </c>
       <c r="E27" t="n">
-        <v>63.87464652882997</v>
+        <v>63.87570819293619</v>
       </c>
       <c r="F27" t="n">
-        <v>6.984889563916322</v>
+        <v>6.984899931832541</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.7128383026256</v>
+        <v>173.7122120206445</v>
       </c>
       <c r="C28" t="n">
-        <v>0.575518786679831</v>
+        <v>0.575504756431148</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.323678988362</v>
+        <v>2793.323220551254</v>
       </c>
       <c r="E28" t="n">
-        <v>15.97511717280941</v>
+        <v>15.97372099734976</v>
       </c>
       <c r="F28" t="n">
-        <v>6.862250676659189</v>
+        <v>6.86226044671415</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>181.6860092536858</v>
+        <v>181.6876722525481</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5028902859597765</v>
+        <v>0.5028889501656209</v>
       </c>
       <c r="D29" t="n">
-        <v>2815.961117543527</v>
+        <v>2815.964856177087</v>
       </c>
       <c r="E29" t="n">
-        <v>79.84976370163938</v>
+        <v>79.84942919028595</v>
       </c>
       <c r="F29" t="n">
-        <v>6.972477053315853</v>
+        <v>6.972486459469331</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.3269307956156</v>
+        <v>105.326567365658</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1222777662267789</v>
+        <v>0.1222762309533043</v>
       </c>
       <c r="D30" t="n">
-        <v>2625.850122993057</v>
+        <v>2625.853042673255</v>
       </c>
       <c r="E30" t="n">
-        <v>79.84976370163938</v>
+        <v>79.84942919028595</v>
       </c>
       <c r="F30" t="n">
-        <v>7.138006992900166</v>
+        <v>7.13802025302928</v>
       </c>
       <c r="G30" t="n">
-        <v>97.4112888317519</v>
+        <v>97.41144525111011</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.56576630447159</v>
+        <v>72.56548849435671</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03482964491563933</v>
+        <v>0.03482923353472648</v>
       </c>
       <c r="D31" t="n">
-        <v>2494.672085310989</v>
+        <v>2494.674946567159</v>
       </c>
       <c r="E31" t="n">
-        <v>46.95316707734189</v>
+        <v>46.95255587085682</v>
       </c>
       <c r="F31" t="n">
-        <v>7.323494860146903</v>
+        <v>7.323508230103093</v>
       </c>
       <c r="G31" t="n">
-        <v>94.16326343587838</v>
+        <v>94.16340846156956</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>72.56576630447159</v>
+        <v>72.56548849435671</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03482964491563933</v>
+        <v>0.03482923353472648</v>
       </c>
       <c r="D32" t="n">
-        <v>2494.672085310989</v>
+        <v>2494.674946567159</v>
       </c>
       <c r="E32" t="n">
-        <v>19.0114345859608</v>
+        <v>19.01120051935598</v>
       </c>
       <c r="F32" t="n">
-        <v>7.323494860146903</v>
+        <v>7.323508230103093</v>
       </c>
       <c r="G32" t="n">
-        <v>94.16326343587838</v>
+        <v>94.16340846156956</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.63194494708199</v>
+        <v>28.63187908367712</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003924620645650705</v>
+        <v>0.003924605654088243</v>
       </c>
       <c r="D33" t="n">
-        <v>2337.780602562258</v>
+        <v>2337.785566314881</v>
       </c>
       <c r="E33" t="n">
-        <v>19.0114345859608</v>
+        <v>19.01120051935598</v>
       </c>
       <c r="F33" t="n">
-        <v>7.766748959531635</v>
+        <v>7.766767011614367</v>
       </c>
       <c r="G33" t="n">
-        <v>91.15128194116335</v>
+        <v>91.15149141259299</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.63194494708199</v>
+        <v>28.63187908367712</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003924620645650705</v>
+        <v>0.003924605654088243</v>
       </c>
       <c r="D34" t="n">
-        <v>120.0148900374386</v>
+        <v>120.0146146885401</v>
       </c>
       <c r="E34" t="n">
-        <v>19.0114345859608</v>
+        <v>19.01120051935598</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.65699492020661</v>
+        <v>30.65692902297366</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>129.1101268228113</v>
+        <v>129.109851497822</v>
       </c>
       <c r="E35" t="n">
-        <v>19.0114345859608</v>
+        <v>19.01120051935598</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.2239008898496</v>
+        <v>500.2281957639698</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3468.735064523642</v>
+        <v>3468.744539966727</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623157475913106</v>
+        <v>7.623154872021233</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.2239008898496</v>
+        <v>515.2281957639698</v>
       </c>
       <c r="C42" t="n">
-        <v>6.790366221994605</v>
+        <v>6.789219964762172</v>
       </c>
       <c r="D42" t="n">
-        <v>3450.53017055197</v>
+        <v>3450.553209893358</v>
       </c>
       <c r="E42" t="n">
-        <v>8.975702211528194</v>
+        <v>8.975392183822535</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
